--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_15_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1327543.038421792</v>
+        <v>1323204.026355053</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>22012922.25143359</v>
+        <v>22012922.25143361</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7098937.042053146</v>
+        <v>7098937.042053145</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5694481.356895741</v>
+        <v>5694481.35689574</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>216.8256015340714</v>
       </c>
       <c r="H11" t="n">
         <v>287.3796452813201</v>
@@ -1423,19 +1423,19 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T11" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V11" t="n">
-        <v>316.3258960780489</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T12" t="n">
         <v>153.4484244137338</v>
@@ -1514,7 +1514,7 @@
         <v>211.1008365810345</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>174.5627220424965</v>
       </c>
       <c r="Y12" t="n">
         <v>157.8079400398083</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>57.67047884508221</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>164.6835037092309</v>
@@ -1548,7 +1548,7 @@
         <v>140.1594986563935</v>
       </c>
       <c r="I13" t="n">
-        <v>88.28603573286841</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T13" t="n">
         <v>233.3317950548276</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>42.45131098206644</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>76.99230230222761</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>402.6471267764352</v>
       </c>
       <c r="H14" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.171618822307241</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T14" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U14" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>87.09445372222338</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T15" t="n">
         <v>153.4484244137338</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.911655191501</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -1776,16 +1776,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>160.5200466711485</v>
       </c>
       <c r="G16" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>88.28603573286841</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.20525872441495</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T16" t="n">
         <v>233.3317950548276</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
@@ -1833,7 +1833,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>150.3520837237934</v>
       </c>
       <c r="D17" t="n">
-        <v>63.28123644711116</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T18" t="n">
         <v>153.4484244137338</v>
@@ -1982,7 +1982,7 @@
         <v>195.3071174306206</v>
       </c>
       <c r="V18" t="n">
-        <v>211.5744117368965</v>
+        <v>211.5744117368968</v>
       </c>
       <c r="W18" t="n">
         <v>211.1008365810345</v>
@@ -2004,13 +2004,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.87185065873715</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.20525872441495</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>114.5757448199148</v>
       </c>
     </row>
     <row r="20">
@@ -2083,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>219.7049980427582</v>
       </c>
       <c r="H20" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>8.619398793447914</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T20" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V20" t="n">
-        <v>269.0019242134906</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G21" t="n">
-        <v>104.8533946561529</v>
+        <v>104.8533946561527</v>
       </c>
       <c r="H21" t="n">
         <v>59.73653548534391</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T21" t="n">
         <v>153.4484244137338</v>
@@ -2241,16 +2241,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>164.6835037092309</v>
@@ -2259,7 +2259,7 @@
         <v>140.1594986563935</v>
       </c>
       <c r="I22" t="n">
-        <v>88.28603573286841</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>44.20525872441495</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.9411860548871</v>
@@ -2301,13 +2301,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>1.558277386903352</v>
+        <v>116.7498035895083</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>228.9376339725082</v>
       </c>
       <c r="G23" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>287.3796452813201</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8.619398793447914</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T23" t="n">
-        <v>95.48113496459111</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
         <v>396.9273063213908</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T24" t="n">
         <v>153.4484244137338</v>
@@ -2481,7 +2481,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>127.6505284822593</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -2496,7 +2496,7 @@
         <v>140.1594986563935</v>
       </c>
       <c r="I25" t="n">
-        <v>88.28603573286841</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>44.20525872441495</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S25" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>279.9213814272745</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>167.8961612158083</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -2554,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C26" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.1616804421844</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>88.49284952069368</v>
       </c>
       <c r="T26" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>269.8438615445946</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T27" t="n">
         <v>153.4484244137338</v>
@@ -2715,7 +2715,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>157.8996982303191</v>
@@ -2727,13 +2727,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H28" t="n">
-        <v>140.1594986563935</v>
+        <v>55.99355231783611</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U28" t="n">
-        <v>270.5680419995144</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
@@ -2791,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>347.4895788878097</v>
+        <v>358.2863420337964</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2803,7 +2803,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>402.6471267764352</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>8.619398793447914</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T30" t="n">
         <v>153.4484244137338</v>
@@ -2967,10 +2967,10 @@
         <v>164.6835037092309</v>
       </c>
       <c r="H31" t="n">
-        <v>119.9429086587634</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I31" t="n">
-        <v>88.28603573286841</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>168.9411860548871</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>53.58357872447321</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>376.8959129015984</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>295.944508468274</v>
       </c>
       <c r="G32" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T33" t="n">
         <v>153.4484244137338</v>
@@ -3195,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>86.87595201785842</v>
+        <v>12.17717312021224</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>164.6835037092309</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>88.28603573286841</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3274,13 +3274,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>402.6471267764352</v>
+        <v>221.8642932250783</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T35" t="n">
         <v>211.2562336341194</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>128.587741753255</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T36" t="n">
         <v>153.4484244137338</v>
@@ -3413,7 +3413,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y36" t="n">
-        <v>157.8079400398086</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="37">
@@ -3429,16 +3429,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>124.8173089570777</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.1594986563935</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>44.20525872441495</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>233.3317950548276</v>
@@ -3483,16 +3483,16 @@
         <v>279.9213814272745</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>154.296491611576</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>394.0638216072116</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>126.6046203366083</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T39" t="n">
         <v>153.4484244137338</v>
@@ -3660,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>5.665859586955053</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>84.42158055193811</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H40" t="n">
         <v>140.1594986563935</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>44.20525872441495</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.9411860548871</v>
@@ -3717,10 +3717,10 @@
         <v>233.3317950548276</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -3729,7 +3729,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,10 +3751,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>345.563795842419</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>107.1039799501173</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3827,7 +3827,7 @@
         <v>115.7281862028015</v>
       </c>
       <c r="E42" t="n">
-        <v>119.2878878475953</v>
+        <v>119.2878878475955</v>
       </c>
       <c r="F42" t="n">
         <v>107.8702810193205</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T42" t="n">
         <v>153.4484244137338</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>101.8995860613143</v>
+        <v>129.9150040827414</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>44.20525872441495</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>352.5122788994411</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.619398793447914</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>88.49284952069368</v>
       </c>
       <c r="T44" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>140.562772021266</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>87.09445372222318</v>
+        <v>87.09445372222319</v>
       </c>
       <c r="T45" t="n">
         <v>153.4484244137338</v>
@@ -4118,7 +4118,7 @@
         <v>211.5744117368965</v>
       </c>
       <c r="W45" t="n">
-        <v>211.1008365810349</v>
+        <v>211.1008365810345</v>
       </c>
       <c r="X45" t="n">
         <v>174.5627220424961</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I46" t="n">
-        <v>88.28603573286841</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>44.20525872441495</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>222.9558718468551</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9213814272745</v>
+        <v>221.9706440102423</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>741.0157457642497</v>
+        <v>549.9069142028445</v>
       </c>
       <c r="C11" t="n">
-        <v>330.8911550775198</v>
+        <v>549.9069142028445</v>
       </c>
       <c r="D11" t="n">
-        <v>330.8911550775198</v>
+        <v>549.9069142028445</v>
       </c>
       <c r="E11" t="n">
-        <v>330.8911550775198</v>
+        <v>549.9069142028445</v>
       </c>
       <c r="F11" t="n">
-        <v>330.8911550775198</v>
+        <v>549.9069142028445</v>
       </c>
       <c r="G11" t="n">
         <v>330.8911550775198</v>
@@ -5044,25 +5044,25 @@
         <v>462.3294854813261</v>
       </c>
       <c r="K11" t="n">
-        <v>705.9280359432655</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L11" t="n">
-        <v>922.8993569029311</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M11" t="n">
-        <v>1177.147879533289</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N11" t="n">
-        <v>1437.37900146188</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O11" t="n">
-        <v>1677.707089808</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P11" t="n">
-        <v>1868.848647676702</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q11" t="n">
-        <v>1992.87803497895</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R11" t="n">
         <v>2030.43425481942</v>
@@ -5071,22 +5071,22 @@
         <v>1941.047538131851</v>
       </c>
       <c r="T11" t="n">
-        <v>1727.657403147892</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U11" t="n">
-        <v>1470.758032578284</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="V11" t="n">
-        <v>1151.236925428739</v>
+        <v>1334.310612898723</v>
       </c>
       <c r="W11" t="n">
-        <v>1151.236925428739</v>
+        <v>950.5503120338919</v>
       </c>
       <c r="X11" t="n">
-        <v>1151.236925428739</v>
+        <v>549.9069142028445</v>
       </c>
       <c r="Y11" t="n">
-        <v>1151.236925428739</v>
+        <v>549.9069142028445</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>687.2060646415979</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C12" t="n">
-        <v>553.2109933905436</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D12" t="n">
         <v>436.3138356099362</v>
@@ -5108,37 +5108,37 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F12" t="n">
-        <v>206.8611397847687</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G12" t="n">
-        <v>100.9486199300693</v>
+        <v>100.9486199300691</v>
       </c>
       <c r="H12" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I12" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J12" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K12" t="n">
-        <v>502.1623960378341</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L12" t="n">
-        <v>675.9276273691753</v>
+        <v>967.0415704634819</v>
       </c>
       <c r="M12" t="n">
-        <v>886.5429879661483</v>
+        <v>1177.656931060455</v>
       </c>
       <c r="N12" t="n">
-        <v>1108.568211643436</v>
+        <v>1399.682154737742</v>
       </c>
       <c r="O12" t="n">
-        <v>1302.678898104413</v>
+        <v>1708.649055108187</v>
       </c>
       <c r="P12" t="n">
-        <v>1450.639945261231</v>
+        <v>1856.610102265005</v>
       </c>
       <c r="Q12" t="n">
         <v>1935.300869346252</v>
@@ -5153,7 +5153,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U12" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V12" t="n">
         <v>1376.470207038133</v>
@@ -5162,10 +5162,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X12" t="n">
-        <v>986.9110569133545</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y12" t="n">
-        <v>827.5090972771845</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>437.7087235797146</v>
+        <v>513.162035597539</v>
       </c>
       <c r="C13" t="n">
-        <v>437.7087235797146</v>
+        <v>513.162035597539</v>
       </c>
       <c r="D13" t="n">
-        <v>437.7087235797146</v>
+        <v>513.162035597539</v>
       </c>
       <c r="E13" t="n">
-        <v>437.7087235797146</v>
+        <v>513.162035597539</v>
       </c>
       <c r="F13" t="n">
-        <v>437.7087235797146</v>
+        <v>348.5309097081303</v>
       </c>
       <c r="G13" t="n">
-        <v>271.361750136047</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="H13" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I13" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J13" t="n">
-        <v>52.29045199975553</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K13" t="n">
-        <v>309.7147646564053</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L13" t="n">
-        <v>701.2525880677156</v>
+        <v>452.2748404640288</v>
       </c>
       <c r="M13" t="n">
-        <v>1108.983026439426</v>
+        <v>880.3355820550746</v>
       </c>
       <c r="N13" t="n">
         <v>1193.283917589609</v>
@@ -5223,28 +5223,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R13" t="n">
-        <v>2030.43425481942</v>
+        <v>1985.782478330112</v>
       </c>
       <c r="S13" t="n">
-        <v>2030.43425481942</v>
+        <v>1815.134815648408</v>
       </c>
       <c r="T13" t="n">
-        <v>1794.745572945857</v>
+        <v>1579.446133774845</v>
       </c>
       <c r="U13" t="n">
-        <v>1511.996702817297</v>
+        <v>1296.697263646284</v>
       </c>
       <c r="V13" t="n">
-        <v>1238.110957756819</v>
+        <v>1022.811518585806</v>
       </c>
       <c r="W13" t="n">
-        <v>959.041293265693</v>
+        <v>743.7418540946808</v>
       </c>
       <c r="X13" t="n">
-        <v>720.6974311253764</v>
+        <v>700.8617419915834</v>
       </c>
       <c r="Y13" t="n">
-        <v>495.9617325141411</v>
+        <v>700.8617419915834</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1149.923569601363</v>
+        <v>1343.89710228306</v>
       </c>
       <c r="C14" t="n">
-        <v>739.7989789146335</v>
+        <v>1266.127099957578</v>
       </c>
       <c r="D14" t="n">
-        <v>739.7989789146335</v>
+        <v>861.6631700506384</v>
       </c>
       <c r="E14" t="n">
-        <v>739.7989789146335</v>
+        <v>447.3229545675351</v>
       </c>
       <c r="F14" t="n">
-        <v>739.7989789146335</v>
+        <v>447.3229545675351</v>
       </c>
       <c r="G14" t="n">
-        <v>333.0847094434868</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H14" t="n">
-        <v>42.80223946235532</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I14" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J14" t="n">
-        <v>164.5779419611383</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K14" t="n">
-        <v>327.4249451777068</v>
+        <v>705.9280359432659</v>
       </c>
       <c r="L14" t="n">
-        <v>544.3962661373724</v>
+        <v>922.8993569029313</v>
       </c>
       <c r="M14" t="n">
-        <v>798.6447887677302</v>
+        <v>1177.147879533289</v>
       </c>
       <c r="N14" t="n">
-        <v>1058.875910696321</v>
+        <v>1437.37900146188</v>
       </c>
       <c r="O14" t="n">
-        <v>1299.203999042441</v>
+        <v>1677.707089808</v>
       </c>
       <c r="P14" t="n">
-        <v>1490.345556911144</v>
+        <v>1868.848647676702</v>
       </c>
       <c r="Q14" t="n">
         <v>1992.87803497895</v>
@@ -5305,25 +5305,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S14" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T14" t="n">
-        <v>1817.044119835461</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U14" t="n">
-        <v>1560.144749265853</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="V14" t="n">
-        <v>1560.144749265853</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="W14" t="n">
-        <v>1560.144749265853</v>
+        <v>1343.89710228306</v>
       </c>
       <c r="X14" t="n">
-        <v>1560.144749265853</v>
+        <v>1343.89710228306</v>
       </c>
       <c r="Y14" t="n">
-        <v>1560.144749265853</v>
+        <v>1343.89710228306</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>687.206064641598</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C15" t="n">
-        <v>553.2109933905438</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D15" t="n">
         <v>436.3138356099362</v>
@@ -5345,7 +5345,7 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F15" t="n">
-        <v>206.8611397847688</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G15" t="n">
         <v>100.9486199300691</v>
@@ -5354,28 +5354,28 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I15" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J15" t="n">
-        <v>89.5360328555595</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K15" t="n">
-        <v>204.8133672228702</v>
+        <v>851.7642360961713</v>
       </c>
       <c r="L15" t="n">
-        <v>481.5588752952861</v>
+        <v>1025.529467427512</v>
       </c>
       <c r="M15" t="n">
-        <v>984.0913533630926</v>
+        <v>1236.144828024485</v>
       </c>
       <c r="N15" t="n">
-        <v>1206.11657704038</v>
+        <v>1458.170051701773</v>
       </c>
       <c r="O15" t="n">
-        <v>1708.649055108187</v>
+        <v>1652.28073816275</v>
       </c>
       <c r="P15" t="n">
-        <v>1856.610102265004</v>
+        <v>1800.241785319567</v>
       </c>
       <c r="Q15" t="n">
         <v>1935.300869346252</v>
@@ -5399,10 +5399,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X15" t="n">
-        <v>986.9110569133546</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y15" t="n">
-        <v>827.5090972771847</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>616.5389322204107</v>
+        <v>694.2489786274308</v>
       </c>
       <c r="C16" t="n">
-        <v>616.5389322204107</v>
+        <v>523.1556061891473</v>
       </c>
       <c r="D16" t="n">
-        <v>457.0442875433208</v>
+        <v>363.6609615120573</v>
       </c>
       <c r="E16" t="n">
-        <v>296.1334724116403</v>
+        <v>202.7501463803768</v>
       </c>
       <c r="F16" t="n">
-        <v>296.1334724116403</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G16" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H16" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I16" t="n">
         <v>40.60868509638841</v>
@@ -5439,7 +5439,7 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K16" t="n">
-        <v>374.7161282877417</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L16" t="n">
         <v>766.2539516990519</v>
@@ -5448,10 +5448,10 @@
         <v>1194.314693290098</v>
       </c>
       <c r="N16" t="n">
-        <v>1610.649885887866</v>
+        <v>1278.61558444028</v>
       </c>
       <c r="O16" t="n">
-        <v>1680.288602348043</v>
+        <v>1577.997393468527</v>
       </c>
       <c r="P16" t="n">
         <v>1890.762731023884</v>
@@ -5460,28 +5460,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R16" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S16" t="n">
-        <v>1985.782478330112</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T16" t="n">
-        <v>1750.093796456549</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U16" t="n">
-        <v>1467.344926327989</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="V16" t="n">
-        <v>1193.459181267511</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="W16" t="n">
-        <v>914.3895167763849</v>
+        <v>1345.028245773027</v>
       </c>
       <c r="X16" t="n">
-        <v>676.0456546360683</v>
+        <v>1106.68438363271</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.0456546360683</v>
+        <v>881.9486850214752</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1219.276402103021</v>
+        <v>192.4794767365837</v>
       </c>
       <c r="C17" t="n">
-        <v>809.151811416291</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="D17" t="n">
-        <v>745.2313705606232</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="E17" t="n">
-        <v>330.8911550775198</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="F17" t="n">
-        <v>330.8911550775198</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G17" t="n">
-        <v>330.8911550775198</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H17" t="n">
         <v>40.60868509638841</v>
@@ -5515,52 +5515,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J17" t="n">
-        <v>135.553658593597</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K17" t="n">
-        <v>298.4006618101655</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L17" t="n">
-        <v>515.3719827698311</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M17" t="n">
-        <v>807.8508563179323</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N17" t="n">
-        <v>1310.383334385739</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O17" t="n">
-        <v>1550.711422731858</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P17" t="n">
-        <v>1741.852980600561</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q17" t="n">
-        <v>1865.882367902809</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R17" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S17" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T17" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U17" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="V17" t="n">
-        <v>2030.43425481942</v>
+        <v>1377.819848484372</v>
       </c>
       <c r="W17" t="n">
-        <v>2030.43425481942</v>
+        <v>994.059547619541</v>
       </c>
       <c r="X17" t="n">
-        <v>2030.43425481942</v>
+        <v>593.4161497884936</v>
       </c>
       <c r="Y17" t="n">
-        <v>1629.49758176751</v>
+        <v>192.4794767365837</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I18" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J18" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K18" t="n">
-        <v>448.4817711975034</v>
+        <v>502.1623960378346</v>
       </c>
       <c r="L18" t="n">
-        <v>622.2470025288446</v>
+        <v>675.9276273691758</v>
       </c>
       <c r="M18" t="n">
-        <v>832.8623631258176</v>
+        <v>886.5429879661488</v>
       </c>
       <c r="N18" t="n">
-        <v>1054.887586803105</v>
+        <v>1108.568211643436</v>
       </c>
       <c r="O18" t="n">
-        <v>1390.648614581394</v>
+        <v>1302.678898104414</v>
       </c>
       <c r="P18" t="n">
-        <v>1538.609661738212</v>
+        <v>1450.639945261231</v>
       </c>
       <c r="Q18" t="n">
-        <v>2023.270585823233</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R18" t="n">
         <v>2030.43425481942</v>
@@ -5627,7 +5627,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U18" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V18" t="n">
         <v>1376.470207038133</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.6102496307886</v>
+        <v>372.6128726663524</v>
       </c>
       <c r="C19" t="n">
-        <v>263.6102496307886</v>
+        <v>201.5195002280689</v>
       </c>
       <c r="D19" t="n">
-        <v>104.1156049536987</v>
+        <v>201.5195002280689</v>
       </c>
       <c r="E19" t="n">
-        <v>104.1156049536987</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="F19" t="n">
-        <v>104.1156049536987</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G19" t="n">
-        <v>104.1156049536987</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H19" t="n">
-        <v>104.1156049536987</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I19" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J19" t="n">
-        <v>52.29045199975553</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K19" t="n">
-        <v>309.7147646564053</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L19" t="n">
-        <v>387.2734768326925</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M19" t="n">
-        <v>815.3342184237383</v>
+        <v>1194.314693290098</v>
       </c>
       <c r="N19" t="n">
-        <v>1231.669411021506</v>
+        <v>1454.181401062727</v>
       </c>
       <c r="O19" t="n">
-        <v>1616.382886900424</v>
+        <v>1838.894876941645</v>
       </c>
       <c r="P19" t="n">
-        <v>1929.148224455781</v>
+        <v>1890.762731023884</v>
       </c>
       <c r="Q19" t="n">
         <v>2030.43425481942</v>
@@ -5718,7 +5718,7 @@
         <v>676.0456546360683</v>
       </c>
       <c r="Y19" t="n">
-        <v>451.309956024833</v>
+        <v>560.3125790603968</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>760.6280305515575</v>
+        <v>1086.997731713452</v>
       </c>
       <c r="C20" t="n">
-        <v>760.6280305515575</v>
+        <v>676.8731410267222</v>
       </c>
       <c r="D20" t="n">
-        <v>760.6280305515575</v>
+        <v>676.8731410267222</v>
       </c>
       <c r="E20" t="n">
-        <v>760.6280305515575</v>
+        <v>262.5329255436189</v>
       </c>
       <c r="F20" t="n">
-        <v>339.597618505245</v>
+        <v>262.5329255436189</v>
       </c>
       <c r="G20" t="n">
-        <v>339.597618505245</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H20" t="n">
-        <v>49.31514852411357</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I20" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J20" t="n">
-        <v>135.553658593597</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K20" t="n">
-        <v>298.4006618101655</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L20" t="n">
-        <v>515.3719827698311</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M20" t="n">
-        <v>769.6205054001889</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N20" t="n">
-        <v>1029.85162732878</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O20" t="n">
-        <v>1270.1797156749</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P20" t="n">
-        <v>1461.321273543602</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q20" t="n">
-        <v>1865.882367902809</v>
+        <v>1912.126487733579</v>
       </c>
       <c r="R20" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S20" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T20" t="n">
-        <v>1817.044119835461</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U20" t="n">
-        <v>1817.044119835461</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V20" t="n">
-        <v>1545.325004468299</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="W20" t="n">
-        <v>1161.564703603467</v>
+        <v>1086.997731713452</v>
       </c>
       <c r="X20" t="n">
-        <v>1161.564703603467</v>
+        <v>1086.997731713452</v>
       </c>
       <c r="Y20" t="n">
-        <v>760.6280305515575</v>
+        <v>1086.997731713452</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>687.2060646415983</v>
+        <v>687.206064641598</v>
       </c>
       <c r="C21" t="n">
-        <v>553.210993390544</v>
+        <v>553.2109933905438</v>
       </c>
       <c r="D21" t="n">
-        <v>436.3138356099364</v>
+        <v>436.3138356099362</v>
       </c>
       <c r="E21" t="n">
-        <v>315.8210196022644</v>
+        <v>315.8210196022642</v>
       </c>
       <c r="F21" t="n">
-        <v>206.861139784769</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G21" t="n">
         <v>100.9486199300691</v>
@@ -5828,31 +5828,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I21" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J21" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K21" t="n">
-        <v>448.4817711975034</v>
+        <v>851.7642360961713</v>
       </c>
       <c r="L21" t="n">
-        <v>622.2470025288446</v>
+        <v>1025.529467427512</v>
       </c>
       <c r="M21" t="n">
-        <v>832.8623631258176</v>
+        <v>1380.482861446903</v>
       </c>
       <c r="N21" t="n">
-        <v>1054.887586803105</v>
+        <v>1602.508085124191</v>
       </c>
       <c r="O21" t="n">
-        <v>1248.998273264082</v>
+        <v>1796.618771585168</v>
       </c>
       <c r="P21" t="n">
-        <v>1450.639945261231</v>
+        <v>1944.579818741985</v>
       </c>
       <c r="Q21" t="n">
-        <v>1935.300869346252</v>
+        <v>2023.270585823233</v>
       </c>
       <c r="R21" t="n">
         <v>2030.43425481942</v>
@@ -5864,7 +5864,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U21" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V21" t="n">
         <v>1376.470207038133</v>
@@ -5873,10 +5873,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X21" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y21" t="n">
-        <v>827.509097277185</v>
+        <v>827.5090972771847</v>
       </c>
     </row>
     <row r="22">
@@ -5886,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>608.8020960179981</v>
+        <v>761.8344941462133</v>
       </c>
       <c r="C22" t="n">
-        <v>437.7087235797146</v>
+        <v>761.8344941462133</v>
       </c>
       <c r="D22" t="n">
-        <v>437.7087235797146</v>
+        <v>602.3398494691234</v>
       </c>
       <c r="E22" t="n">
-        <v>437.7087235797146</v>
+        <v>602.3398494691234</v>
       </c>
       <c r="F22" t="n">
         <v>437.7087235797146</v>
@@ -5910,52 +5910,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J22" t="n">
-        <v>52.29045199975553</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K22" t="n">
-        <v>103.4345710706911</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L22" t="n">
-        <v>494.9723944820014</v>
+        <v>766.2539516990519</v>
       </c>
       <c r="M22" t="n">
-        <v>923.0331360730472</v>
+        <v>1194.314693290098</v>
       </c>
       <c r="N22" t="n">
-        <v>1339.368328670815</v>
+        <v>1610.649885887866</v>
       </c>
       <c r="O22" t="n">
-        <v>1577.997393468527</v>
+        <v>1965.168837147482</v>
       </c>
       <c r="P22" t="n">
-        <v>1890.762731023884</v>
+        <v>2017.036691229721</v>
       </c>
       <c r="Q22" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R22" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S22" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T22" t="n">
-        <v>1579.446133774845</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U22" t="n">
-        <v>1296.697263646284</v>
+        <v>1341.349040135593</v>
       </c>
       <c r="V22" t="n">
-        <v>1022.811518585806</v>
+        <v>1067.463295075115</v>
       </c>
       <c r="W22" t="n">
-        <v>1021.237501023278</v>
+        <v>949.5342005402576</v>
       </c>
       <c r="X22" t="n">
-        <v>1021.237501023278</v>
+        <v>949.5342005402576</v>
       </c>
       <c r="Y22" t="n">
-        <v>796.5018024120425</v>
+        <v>949.5342005402576</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1164.954151485535</v>
+        <v>684.8404231515071</v>
       </c>
       <c r="C23" t="n">
-        <v>754.8295607988052</v>
+        <v>684.8404231515071</v>
       </c>
       <c r="D23" t="n">
-        <v>754.8295607988052</v>
+        <v>280.3764932445677</v>
       </c>
       <c r="E23" t="n">
-        <v>754.8295607988052</v>
+        <v>280.3764932445677</v>
       </c>
       <c r="F23" t="n">
-        <v>754.8295607988052</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="G23" t="n">
-        <v>348.1152913276584</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H23" t="n">
-        <v>57.83282134652698</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I23" t="n">
         <v>49.12635791880181</v>
@@ -5992,19 +5992,19 @@
         <v>144.0713314160104</v>
       </c>
       <c r="K23" t="n">
-        <v>306.9183346325789</v>
+        <v>752.0100106611827</v>
       </c>
       <c r="L23" t="n">
-        <v>523.8896555922445</v>
+        <v>968.9813316208482</v>
       </c>
       <c r="M23" t="n">
-        <v>778.1381782226023</v>
+        <v>1223.229854251206</v>
       </c>
       <c r="N23" t="n">
-        <v>1319.469854129939</v>
+        <v>1483.460976179797</v>
       </c>
       <c r="O23" t="n">
-        <v>1559.797942476058</v>
+        <v>1976.595063852528</v>
       </c>
       <c r="P23" t="n">
         <v>2167.736621721231</v>
@@ -6016,25 +6016,25 @@
         <v>2456.31789594009</v>
       </c>
       <c r="S23" t="n">
-        <v>2456.31789594009</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="T23" t="n">
-        <v>2359.872305066766</v>
+        <v>2153.541044268562</v>
       </c>
       <c r="U23" t="n">
-        <v>2359.872305066766</v>
+        <v>1896.641673698954</v>
       </c>
       <c r="V23" t="n">
-        <v>2359.872305066766</v>
+        <v>1896.641673698954</v>
       </c>
       <c r="W23" t="n">
-        <v>1976.112004201934</v>
+        <v>1896.641673698954</v>
       </c>
       <c r="X23" t="n">
-        <v>1976.112004201934</v>
+        <v>1495.998275867906</v>
       </c>
       <c r="Y23" t="n">
-        <v>1575.175331150024</v>
+        <v>1095.061602815997</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>49.12635791880181</v>
       </c>
       <c r="I24" t="n">
-        <v>49.12635791880181</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J24" t="n">
-        <v>98.0537056779729</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K24" t="n">
-        <v>213.3310400452836</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L24" t="n">
-        <v>387.0962713766248</v>
+        <v>646.7919965494299</v>
       </c>
       <c r="M24" t="n">
-        <v>895.0606607885613</v>
+        <v>857.4073571464028</v>
       </c>
       <c r="N24" t="n">
-        <v>1117.085884465849</v>
+        <v>1079.43258082369</v>
       </c>
       <c r="O24" t="n">
-        <v>1311.196570926826</v>
+        <v>1273.543267284668</v>
       </c>
       <c r="P24" t="n">
         <v>1459.157618083644</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1071.801637621359</v>
+        <v>1102.356354538591</v>
       </c>
       <c r="C25" t="n">
-        <v>900.7082651830751</v>
+        <v>931.2629821003072</v>
       </c>
       <c r="D25" t="n">
         <v>771.7683374232172</v>
@@ -6147,13 +6147,13 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J25" t="n">
-        <v>125.8094884535056</v>
+        <v>125.8094884535053</v>
       </c>
       <c r="K25" t="n">
-        <v>383.2338011101554</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L25" t="n">
-        <v>774.7716245214656</v>
+        <v>774.7716245214652</v>
       </c>
       <c r="M25" t="n">
         <v>1202.832366112511</v>
@@ -6177,22 +6177,22 @@
         <v>2241.018456769079</v>
       </c>
       <c r="T25" t="n">
-        <v>2005.329774895515</v>
+        <v>2241.018456769079</v>
       </c>
       <c r="U25" t="n">
-        <v>1722.580904766955</v>
+        <v>1958.269586640518</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.580904766955</v>
+        <v>1684.38384158004</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.580904766955</v>
+        <v>1684.38384158004</v>
       </c>
       <c r="X25" t="n">
-        <v>1484.237042626638</v>
+        <v>1514.79175954387</v>
       </c>
       <c r="Y25" t="n">
-        <v>1259.501344015403</v>
+        <v>1290.056060932635</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>873.591164088635</v>
+        <v>1556.066601756984</v>
       </c>
       <c r="C26" t="n">
-        <v>463.4665734019051</v>
+        <v>1145.942011070254</v>
       </c>
       <c r="D26" t="n">
-        <v>463.4665734019051</v>
+        <v>741.4780811633145</v>
       </c>
       <c r="E26" t="n">
-        <v>49.12635791880181</v>
+        <v>741.4780811633145</v>
       </c>
       <c r="F26" t="n">
-        <v>49.12635791880181</v>
+        <v>741.4780811633145</v>
       </c>
       <c r="G26" t="n">
-        <v>49.12635791880181</v>
+        <v>334.7638116921678</v>
       </c>
       <c r="H26" t="n">
-        <v>49.12635791880181</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I26" t="n">
         <v>49.12635791880181</v>
       </c>
       <c r="J26" t="n">
-        <v>144.0713314160104</v>
+        <v>431.6745336207738</v>
       </c>
       <c r="K26" t="n">
-        <v>306.9183346325789</v>
+        <v>594.5215368373423</v>
       </c>
       <c r="L26" t="n">
-        <v>523.8896555922445</v>
+        <v>811.4928577970078</v>
       </c>
       <c r="M26" t="n">
-        <v>818.623808378436</v>
+        <v>1065.741380427366</v>
       </c>
       <c r="N26" t="n">
-        <v>1078.854930307027</v>
+        <v>1325.972502355957</v>
       </c>
       <c r="O26" t="n">
-        <v>1686.7936095522</v>
+        <v>1566.300590702076</v>
       </c>
       <c r="P26" t="n">
-        <v>2294.732288797372</v>
+        <v>1757.442148570778</v>
       </c>
       <c r="Q26" t="n">
-        <v>2418.76167609962</v>
+        <v>2291.766009023479</v>
       </c>
       <c r="R26" t="n">
         <v>2456.31789594009</v>
@@ -6256,22 +6256,22 @@
         <v>2366.931179252521</v>
       </c>
       <c r="T26" t="n">
-        <v>2153.541044268562</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="U26" t="n">
-        <v>1896.641673698954</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="V26" t="n">
-        <v>1546.804119035434</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="W26" t="n">
-        <v>1274.234561919682</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="X26" t="n">
-        <v>873.591164088635</v>
+        <v>1966.287781421473</v>
       </c>
       <c r="Y26" t="n">
-        <v>873.591164088635</v>
+        <v>1966.287781421473</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J27" t="n">
-        <v>98.0537056779729</v>
+        <v>341.7221096526062</v>
       </c>
       <c r="K27" t="n">
-        <v>213.3310400452836</v>
+        <v>456.9994440199168</v>
       </c>
       <c r="L27" t="n">
-        <v>718.4075415839886</v>
+        <v>630.7646753512579</v>
       </c>
       <c r="M27" t="n">
-        <v>929.0229021809616</v>
+        <v>841.3800359482309</v>
       </c>
       <c r="N27" t="n">
-        <v>1151.048125858249</v>
+        <v>1063.405259625519</v>
       </c>
       <c r="O27" t="n">
-        <v>1345.158812319226</v>
+        <v>1257.515946086496</v>
       </c>
       <c r="P27" t="n">
-        <v>1953.097491564399</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q27" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R27" t="n">
         <v>2038.951927641833</v>
@@ -6360,37 +6360,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>846.8315672233389</v>
+        <v>846.2468746876229</v>
       </c>
       <c r="C28" t="n">
-        <v>675.7381947850554</v>
+        <v>846.2468746876229</v>
       </c>
       <c r="D28" t="n">
-        <v>516.2435501079653</v>
+        <v>686.7522300105329</v>
       </c>
       <c r="E28" t="n">
-        <v>355.3327349762848</v>
+        <v>525.8414148788524</v>
       </c>
       <c r="F28" t="n">
-        <v>190.7016090868761</v>
+        <v>361.2102889894437</v>
       </c>
       <c r="G28" t="n">
-        <v>190.7016090868761</v>
+        <v>194.8633155457761</v>
       </c>
       <c r="H28" t="n">
-        <v>49.12635791880181</v>
+        <v>138.3041717903861</v>
       </c>
       <c r="I28" t="n">
         <v>49.12635791880181</v>
       </c>
       <c r="J28" t="n">
-        <v>125.8094884535053</v>
+        <v>125.8094884535055</v>
       </c>
       <c r="K28" t="n">
-        <v>383.2338011101551</v>
+        <v>383.2338011101554</v>
       </c>
       <c r="L28" t="n">
-        <v>774.7716245214654</v>
+        <v>774.7716245214656</v>
       </c>
       <c r="M28" t="n">
         <v>1202.832366112511</v>
@@ -6417,19 +6417,19 @@
         <v>2049.981551384823</v>
       </c>
       <c r="U28" t="n">
-        <v>1776.680498860061</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="V28" t="n">
-        <v>1776.680498860061</v>
+        <v>1776.095806324345</v>
       </c>
       <c r="W28" t="n">
-        <v>1497.610834368935</v>
+        <v>1497.026141833219</v>
       </c>
       <c r="X28" t="n">
-        <v>1259.266972228619</v>
+        <v>1258.682279692903</v>
       </c>
       <c r="Y28" t="n">
-        <v>1034.531273617383</v>
+        <v>1033.946581081667</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1704.381648254029</v>
+        <v>1693.475826894447</v>
       </c>
       <c r="C29" t="n">
-        <v>1704.381648254029</v>
+        <v>1283.351236207717</v>
       </c>
       <c r="D29" t="n">
-        <v>1299.917718347089</v>
+        <v>878.887306300777</v>
       </c>
       <c r="E29" t="n">
-        <v>885.5775028639862</v>
+        <v>464.5470908176737</v>
       </c>
       <c r="F29" t="n">
         <v>464.5470908176737</v>
       </c>
       <c r="G29" t="n">
-        <v>57.83282134652698</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="H29" t="n">
-        <v>57.83282134652698</v>
+        <v>57.83282134652699</v>
       </c>
       <c r="I29" t="n">
         <v>49.12635791880181</v>
       </c>
       <c r="J29" t="n">
-        <v>470.8471583037395</v>
+        <v>144.0713314160104</v>
       </c>
       <c r="K29" t="n">
-        <v>633.6941615203081</v>
+        <v>752.0100106611827</v>
       </c>
       <c r="L29" t="n">
-        <v>850.6654824799737</v>
+        <v>968.9813316208482</v>
       </c>
       <c r="M29" t="n">
-        <v>1186.234399277489</v>
+        <v>1223.229854251206</v>
       </c>
       <c r="N29" t="n">
-        <v>1446.46552120608</v>
+        <v>1483.460976179797</v>
       </c>
       <c r="O29" t="n">
-        <v>1686.7936095522</v>
+        <v>1723.789064525917</v>
       </c>
       <c r="P29" t="n">
         <v>2294.732288797372</v>
@@ -6539,31 +6539,31 @@
         <v>49.12635791880181</v>
       </c>
       <c r="I30" t="n">
-        <v>49.12635791880181</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J30" t="n">
-        <v>98.0537056779729</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K30" t="n">
-        <v>213.3310400452836</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L30" t="n">
-        <v>387.0962713766248</v>
+        <v>646.7919965494299</v>
       </c>
       <c r="M30" t="n">
-        <v>597.7116319735978</v>
+        <v>857.4073571464028</v>
       </c>
       <c r="N30" t="n">
-        <v>819.7368556508854</v>
+        <v>1079.43258082369</v>
       </c>
       <c r="O30" t="n">
-        <v>1427.675534896058</v>
+        <v>1273.543267284668</v>
       </c>
       <c r="P30" t="n">
-        <v>1953.097491564399</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q30" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R30" t="n">
         <v>2038.951927641833</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1081.935556561186</v>
+        <v>1013.178540667006</v>
       </c>
       <c r="C31" t="n">
-        <v>910.8421841229028</v>
+        <v>842.085168228723</v>
       </c>
       <c r="D31" t="n">
-        <v>751.3475394458128</v>
+        <v>682.5905235516329</v>
       </c>
       <c r="E31" t="n">
-        <v>590.4367243141323</v>
+        <v>521.6797084199525</v>
       </c>
       <c r="F31" t="n">
-        <v>425.8055984247236</v>
+        <v>357.0485825305437</v>
       </c>
       <c r="G31" t="n">
-        <v>259.458624981056</v>
+        <v>190.7016090868761</v>
       </c>
       <c r="H31" t="n">
-        <v>138.3041717903859</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I31" t="n">
-        <v>49.12635791880162</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="J31" t="n">
-        <v>125.8094884535051</v>
+        <v>125.8094884535055</v>
       </c>
       <c r="K31" t="n">
-        <v>383.2338011101549</v>
+        <v>383.2338011101554</v>
       </c>
       <c r="L31" t="n">
-        <v>774.7716245214651</v>
+        <v>774.7716245214656</v>
       </c>
       <c r="M31" t="n">
         <v>1202.832366112511</v>
@@ -6651,22 +6651,22 @@
         <v>2285.670233258386</v>
       </c>
       <c r="T31" t="n">
-        <v>2285.670233258386</v>
+        <v>2049.981551384823</v>
       </c>
       <c r="U31" t="n">
-        <v>2285.670233258386</v>
+        <v>1767.232681256263</v>
       </c>
       <c r="V31" t="n">
-        <v>2011.784488197908</v>
+        <v>1493.346936195785</v>
       </c>
       <c r="W31" t="n">
-        <v>1732.714823706783</v>
+        <v>1439.222109201367</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.370961566466</v>
+        <v>1200.878247061051</v>
       </c>
       <c r="Y31" t="n">
-        <v>1269.635262955231</v>
+        <v>1200.878247061051</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1671.914197244211</v>
+        <v>762.4004203395557</v>
       </c>
       <c r="C32" t="n">
-        <v>1671.914197244211</v>
+        <v>762.4004203395557</v>
       </c>
       <c r="D32" t="n">
-        <v>1291.211254919364</v>
+        <v>762.4004203395557</v>
       </c>
       <c r="E32" t="n">
-        <v>876.8710394362611</v>
+        <v>348.0602048564524</v>
       </c>
       <c r="F32" t="n">
-        <v>455.8406273899486</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="G32" t="n">
         <v>49.12635791880181</v>
@@ -6700,25 +6700,25 @@
         <v>49.12635791880181</v>
       </c>
       <c r="J32" t="n">
-        <v>144.0713314160104</v>
+        <v>431.6745336207738</v>
       </c>
       <c r="K32" t="n">
-        <v>306.9183346325789</v>
+        <v>594.5215368373423</v>
       </c>
       <c r="L32" t="n">
-        <v>914.8570138777513</v>
+        <v>811.4928577970078</v>
       </c>
       <c r="M32" t="n">
-        <v>1476.035853577818</v>
+        <v>1065.741380427366</v>
       </c>
       <c r="N32" t="n">
-        <v>1736.266975506409</v>
+        <v>1325.972502355957</v>
       </c>
       <c r="O32" t="n">
-        <v>1976.595063852528</v>
+        <v>1566.300590702076</v>
       </c>
       <c r="P32" t="n">
-        <v>2167.736621721231</v>
+        <v>1757.442148570778</v>
       </c>
       <c r="Q32" t="n">
         <v>2291.766009023479</v>
@@ -6727,25 +6727,25 @@
         <v>2456.31789594009</v>
       </c>
       <c r="S32" t="n">
-        <v>2456.31789594009</v>
+        <v>2366.931179252521</v>
       </c>
       <c r="T32" t="n">
-        <v>2456.31789594009</v>
+        <v>2153.541044268562</v>
       </c>
       <c r="U32" t="n">
-        <v>2456.31789594009</v>
+        <v>1896.641673698954</v>
       </c>
       <c r="V32" t="n">
-        <v>2456.31789594009</v>
+        <v>1546.804119035434</v>
       </c>
       <c r="W32" t="n">
-        <v>2072.557595075259</v>
+        <v>1163.043818170603</v>
       </c>
       <c r="X32" t="n">
-        <v>1671.914197244211</v>
+        <v>762.4004203395557</v>
       </c>
       <c r="Y32" t="n">
-        <v>1671.914197244211</v>
+        <v>762.4004203395557</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>49.12635791880181</v>
       </c>
       <c r="I33" t="n">
-        <v>65.15367911697385</v>
+        <v>65.15367911697383</v>
       </c>
       <c r="J33" t="n">
-        <v>114.0810268761449</v>
+        <v>357.7494308507781</v>
       </c>
       <c r="K33" t="n">
-        <v>229.3583612434556</v>
+        <v>473.0267652180888</v>
       </c>
       <c r="L33" t="n">
-        <v>837.297040488628</v>
+        <v>646.7919965494299</v>
       </c>
       <c r="M33" t="n">
-        <v>1047.912401085601</v>
+        <v>857.4073571464028</v>
       </c>
       <c r="N33" t="n">
-        <v>1269.937624762889</v>
+        <v>1079.43258082369</v>
       </c>
       <c r="O33" t="n">
-        <v>1805.136444407581</v>
+        <v>1273.543267284668</v>
       </c>
       <c r="P33" t="n">
-        <v>1953.097491564399</v>
+        <v>1459.157618083644</v>
       </c>
       <c r="Q33" t="n">
-        <v>2031.788258645647</v>
+        <v>1943.818542168665</v>
       </c>
       <c r="R33" t="n">
         <v>2038.951927641833</v>
@@ -6843,16 +6843,16 @@
         <v>392.4046321207794</v>
       </c>
       <c r="E34" t="n">
-        <v>304.6511452340537</v>
+        <v>380.1044572518782</v>
       </c>
       <c r="F34" t="n">
-        <v>304.6511452340537</v>
+        <v>215.4733313624694</v>
       </c>
       <c r="G34" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="H34" t="n">
-        <v>138.3041717903861</v>
+        <v>49.12635791880181</v>
       </c>
       <c r="I34" t="n">
         <v>49.12635791880181</v>
@@ -6861,10 +6861,10 @@
         <v>125.8094884535053</v>
       </c>
       <c r="K34" t="n">
-        <v>383.2338011101551</v>
+        <v>383.233801110155</v>
       </c>
       <c r="L34" t="n">
-        <v>774.7716245214654</v>
+        <v>774.7716245214652</v>
       </c>
       <c r="M34" t="n">
         <v>1202.832366112511</v>
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1687.15751200389</v>
+        <v>669.1779616953262</v>
       </c>
       <c r="C35" t="n">
-        <v>1687.15751200389</v>
+        <v>669.1779616953262</v>
       </c>
       <c r="D35" t="n">
-        <v>1282.693582096951</v>
+        <v>264.7140317883867</v>
       </c>
       <c r="E35" t="n">
-        <v>868.3533666138476</v>
+        <v>264.7140317883867</v>
       </c>
       <c r="F35" t="n">
-        <v>447.3229545675351</v>
+        <v>264.7140317883867</v>
       </c>
       <c r="G35" t="n">
         <v>40.60868509638841</v>
@@ -6937,52 +6937,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J35" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K35" t="n">
-        <v>298.4006618101655</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L35" t="n">
-        <v>800.9331398779721</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M35" t="n">
-        <v>1177.147879533289</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N35" t="n">
-        <v>1437.37900146188</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O35" t="n">
-        <v>1677.707089808</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P35" t="n">
-        <v>1868.848647676702</v>
+        <v>1741.852980600561</v>
       </c>
       <c r="Q35" t="n">
-        <v>1992.87803497895</v>
+        <v>1865.882367902809</v>
       </c>
       <c r="R35" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S35" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T35" t="n">
-        <v>1817.044119835461</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U35" t="n">
-        <v>1817.044119835461</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="V35" t="n">
-        <v>1817.044119835461</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="W35" t="n">
-        <v>1817.044119835461</v>
+        <v>1470.758032578284</v>
       </c>
       <c r="X35" t="n">
-        <v>1817.044119835461</v>
+        <v>1070.114634747236</v>
       </c>
       <c r="Y35" t="n">
-        <v>1687.15751200389</v>
+        <v>669.1779616953262</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I36" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J36" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K36" t="n">
-        <v>448.4817711975034</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L36" t="n">
-        <v>622.2470025288446</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M36" t="n">
-        <v>832.8623631258176</v>
+        <v>848.8896843239895</v>
       </c>
       <c r="N36" t="n">
-        <v>1054.887586803105</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O36" t="n">
-        <v>1248.998273264082</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P36" t="n">
-        <v>1538.609661738212</v>
+        <v>1450.63994526123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R36" t="n">
         <v>2030.43425481942</v>
@@ -7049,7 +7049,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U36" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V36" t="n">
         <v>1376.470207038133</v>
@@ -7058,7 +7058,7 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X36" t="n">
-        <v>986.911056913355</v>
+        <v>986.9110569133546</v>
       </c>
       <c r="Y36" t="n">
         <v>827.5090972771847</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>674.0728507292195</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="C37" t="n">
-        <v>674.0728507292195</v>
+        <v>308.2620261200967</v>
       </c>
       <c r="D37" t="n">
-        <v>674.0728507292195</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="E37" t="n">
-        <v>513.162035597539</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="F37" t="n">
-        <v>348.5309097081303</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="G37" t="n">
         <v>182.1839362644627</v>
@@ -7098,16 +7098,16 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K37" t="n">
-        <v>374.7161282877417</v>
+        <v>374.7161282877416</v>
       </c>
       <c r="L37" t="n">
-        <v>766.2539516990519</v>
+        <v>663.9627428195356</v>
       </c>
       <c r="M37" t="n">
-        <v>849.3483437758123</v>
+        <v>1092.023484410581</v>
       </c>
       <c r="N37" t="n">
-        <v>1193.283917589609</v>
+        <v>1508.358677008349</v>
       </c>
       <c r="O37" t="n">
         <v>1577.997393468527</v>
@@ -7119,28 +7119,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R37" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S37" t="n">
-        <v>1815.134815648408</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T37" t="n">
-        <v>1579.446133774845</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U37" t="n">
-        <v>1296.697263646284</v>
+        <v>1511.996702817297</v>
       </c>
       <c r="V37" t="n">
-        <v>1296.697263646284</v>
+        <v>1238.110957756819</v>
       </c>
       <c r="W37" t="n">
-        <v>1017.627599155159</v>
+        <v>959.041293265693</v>
       </c>
       <c r="X37" t="n">
-        <v>861.7725571232638</v>
+        <v>720.6974311253764</v>
       </c>
       <c r="Y37" t="n">
-        <v>861.7725571232638</v>
+        <v>495.9617325141411</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>578.6167306685812</v>
+        <v>1286.103903312534</v>
       </c>
       <c r="C38" t="n">
-        <v>168.4921399818513</v>
+        <v>875.9793126258041</v>
       </c>
       <c r="D38" t="n">
-        <v>168.4921399818513</v>
+        <v>875.9793126258041</v>
       </c>
       <c r="E38" t="n">
-        <v>168.4921399818513</v>
+        <v>461.6390971427008</v>
       </c>
       <c r="F38" t="n">
         <v>40.60868509638841</v>
@@ -7174,22 +7174,22 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J38" t="n">
-        <v>135.553658593597</v>
+        <v>416.0853656505564</v>
       </c>
       <c r="K38" t="n">
-        <v>298.4006618101655</v>
+        <v>578.9323688671249</v>
       </c>
       <c r="L38" t="n">
-        <v>515.3719827698311</v>
+        <v>795.9036898267904</v>
       </c>
       <c r="M38" t="n">
-        <v>769.6205054001889</v>
+        <v>1050.152212457148</v>
       </c>
       <c r="N38" t="n">
-        <v>1272.152983467995</v>
+        <v>1310.383334385739</v>
       </c>
       <c r="O38" t="n">
-        <v>1550.711422731858</v>
+        <v>1550.711422731859</v>
       </c>
       <c r="P38" t="n">
         <v>1741.852980600561</v>
@@ -7201,25 +7201,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S38" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T38" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U38" t="n">
-        <v>1773.534884249812</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="V38" t="n">
-        <v>1773.534884249812</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="W38" t="n">
-        <v>1389.774583384981</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="X38" t="n">
-        <v>1389.774583384981</v>
+        <v>1684.148167562243</v>
       </c>
       <c r="Y38" t="n">
-        <v>988.8379103330707</v>
+        <v>1684.148167562243</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I39" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J39" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K39" t="n">
-        <v>553.5611221306186</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L39" t="n">
-        <v>727.3263534619598</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M39" t="n">
-        <v>937.9417140589328</v>
+        <v>848.8896843239895</v>
       </c>
       <c r="N39" t="n">
-        <v>1159.96693773622</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O39" t="n">
-        <v>1354.077624197198</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P39" t="n">
-        <v>1856.610102265004</v>
+        <v>1767.558072530061</v>
       </c>
       <c r="Q39" t="n">
         <v>1935.300869346252</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>591.5840306207979</v>
+        <v>602.3398494691234</v>
       </c>
       <c r="C40" t="n">
-        <v>591.5840306207979</v>
+        <v>602.3398494691234</v>
       </c>
       <c r="D40" t="n">
-        <v>432.0893859437079</v>
+        <v>602.3398494691234</v>
       </c>
       <c r="E40" t="n">
-        <v>432.0893859437079</v>
+        <v>602.3398494691234</v>
       </c>
       <c r="F40" t="n">
-        <v>267.4582600542992</v>
+        <v>437.7087235797146</v>
       </c>
       <c r="G40" t="n">
-        <v>182.1839362644627</v>
+        <v>271.361750136047</v>
       </c>
       <c r="H40" t="n">
-        <v>40.60868509638841</v>
+        <v>129.7864989679727</v>
       </c>
       <c r="I40" t="n">
         <v>40.60868509638841</v>
@@ -7335,19 +7335,19 @@
         <v>117.2918156310919</v>
       </c>
       <c r="K40" t="n">
-        <v>374.7161282877417</v>
+        <v>168.4359347020275</v>
       </c>
       <c r="L40" t="n">
-        <v>452.2748404640289</v>
+        <v>559.9737581133377</v>
       </c>
       <c r="M40" t="n">
-        <v>880.3355820550748</v>
+        <v>988.0344997043835</v>
       </c>
       <c r="N40" t="n">
-        <v>1296.670774652843</v>
+        <v>1404.369692302151</v>
       </c>
       <c r="O40" t="n">
-        <v>1577.997393468527</v>
+        <v>1789.08316818107</v>
       </c>
       <c r="P40" t="n">
         <v>1890.762731023884</v>
@@ -7356,28 +7356,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R40" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S40" t="n">
-        <v>1815.134815648408</v>
+        <v>1859.786592137716</v>
       </c>
       <c r="T40" t="n">
-        <v>1579.446133774845</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="U40" t="n">
-        <v>1296.697263646284</v>
+        <v>1624.097910264153</v>
       </c>
       <c r="V40" t="n">
-        <v>1296.697263646284</v>
+        <v>1350.212165203675</v>
       </c>
       <c r="W40" t="n">
-        <v>1017.627599155159</v>
+        <v>1071.142500712549</v>
       </c>
       <c r="X40" t="n">
-        <v>779.2837370148422</v>
+        <v>832.7986385722324</v>
       </c>
       <c r="Y40" t="n">
-        <v>779.2837370148422</v>
+        <v>608.0629399609971</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1629.49758176751</v>
+        <v>859.4128304864312</v>
       </c>
       <c r="C41" t="n">
-        <v>1629.49758176751</v>
+        <v>859.4128304864312</v>
       </c>
       <c r="D41" t="n">
-        <v>1225.033651860571</v>
+        <v>454.9489005794917</v>
       </c>
       <c r="E41" t="n">
-        <v>810.6934363774676</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="F41" t="n">
-        <v>389.6630243311552</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G41" t="n">
         <v>40.60868509638841</v>
@@ -7411,52 +7411,52 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J41" t="n">
-        <v>135.553658593597</v>
+        <v>462.3294854813261</v>
       </c>
       <c r="K41" t="n">
-        <v>298.4006618101655</v>
+        <v>625.1764886978946</v>
       </c>
       <c r="L41" t="n">
-        <v>515.3719827698311</v>
+        <v>842.1478096575601</v>
       </c>
       <c r="M41" t="n">
-        <v>807.8508563179323</v>
+        <v>1096.396332287918</v>
       </c>
       <c r="N41" t="n">
-        <v>1310.383334385739</v>
+        <v>1356.627454216509</v>
       </c>
       <c r="O41" t="n">
-        <v>1550.711422731858</v>
+        <v>1596.955542562628</v>
       </c>
       <c r="P41" t="n">
-        <v>1741.852980600561</v>
+        <v>1788.097100431331</v>
       </c>
       <c r="Q41" t="n">
-        <v>1865.882367902809</v>
+        <v>1992.87803497895</v>
       </c>
       <c r="R41" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="S41" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T41" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="U41" t="n">
-        <v>2030.43425481942</v>
+        <v>1727.657403147892</v>
       </c>
       <c r="V41" t="n">
-        <v>2030.43425481942</v>
+        <v>1377.819848484372</v>
       </c>
       <c r="W41" t="n">
-        <v>2030.43425481942</v>
+        <v>1377.819848484372</v>
       </c>
       <c r="X41" t="n">
-        <v>2030.43425481942</v>
+        <v>1269.634010150921</v>
       </c>
       <c r="Y41" t="n">
-        <v>1629.49758176751</v>
+        <v>1269.634010150921</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>687.2060646415979</v>
+        <v>687.2060646415983</v>
       </c>
       <c r="C42" t="n">
-        <v>553.2109933905436</v>
+        <v>553.210993390544</v>
       </c>
       <c r="D42" t="n">
-        <v>436.3138356099362</v>
+        <v>436.3138356099364</v>
       </c>
       <c r="E42" t="n">
         <v>315.8210196022642</v>
       </c>
       <c r="F42" t="n">
-        <v>206.8611397847687</v>
+        <v>206.8611397847688</v>
       </c>
       <c r="G42" t="n">
-        <v>100.9486199300693</v>
+        <v>100.9486199300691</v>
       </c>
       <c r="H42" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="I42" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J42" t="n">
-        <v>89.5360328555595</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K42" t="n">
-        <v>204.8133672228702</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L42" t="n">
-        <v>707.3458452906767</v>
+        <v>638.2743237270165</v>
       </c>
       <c r="M42" t="n">
-        <v>974.5127044431297</v>
+        <v>848.8896843239895</v>
       </c>
       <c r="N42" t="n">
-        <v>1196.537928120417</v>
+        <v>1070.914908001277</v>
       </c>
       <c r="O42" t="n">
-        <v>1390.648614581394</v>
+        <v>1265.025594462254</v>
       </c>
       <c r="P42" t="n">
-        <v>1538.609661738212</v>
+        <v>1767.558072530061</v>
       </c>
       <c r="Q42" t="n">
-        <v>2023.270585823234</v>
+        <v>1935.300869346252</v>
       </c>
       <c r="R42" t="n">
         <v>2030.43425481942</v>
@@ -7523,7 +7523,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U42" t="n">
-        <v>1590.181734045099</v>
+        <v>1590.1817340451</v>
       </c>
       <c r="V42" t="n">
         <v>1376.470207038133</v>
@@ -7532,10 +7532,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X42" t="n">
-        <v>986.9110569133545</v>
+        <v>986.911056913355</v>
       </c>
       <c r="Y42" t="n">
-        <v>827.5090972771845</v>
+        <v>827.509097277185</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>782.0478016329122</v>
+        <v>495.9617325141411</v>
       </c>
       <c r="C43" t="n">
-        <v>610.9544291946287</v>
+        <v>495.9617325141411</v>
       </c>
       <c r="D43" t="n">
-        <v>451.4597845175387</v>
+        <v>336.4670878370511</v>
       </c>
       <c r="E43" t="n">
-        <v>348.5309097081303</v>
+        <v>205.2398109857971</v>
       </c>
       <c r="F43" t="n">
-        <v>348.5309097081303</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G43" t="n">
-        <v>182.1839362644627</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H43" t="n">
         <v>40.60868509638841</v>
@@ -7569,22 +7569,22 @@
         <v>40.60868509638841</v>
       </c>
       <c r="J43" t="n">
-        <v>52.29045199975553</v>
+        <v>117.2918156310919</v>
       </c>
       <c r="K43" t="n">
-        <v>309.7147646564053</v>
+        <v>168.4359347020275</v>
       </c>
       <c r="L43" t="n">
-        <v>701.2525880677156</v>
+        <v>559.9737581133377</v>
       </c>
       <c r="M43" t="n">
-        <v>1129.313329658761</v>
+        <v>988.0344997043835</v>
       </c>
       <c r="N43" t="n">
-        <v>1508.358677008349</v>
+        <v>1404.369692302151</v>
       </c>
       <c r="O43" t="n">
-        <v>1577.997393468527</v>
+        <v>1789.08316818107</v>
       </c>
       <c r="P43" t="n">
         <v>1890.762731023884</v>
@@ -7593,28 +7593,28 @@
         <v>2030.43425481942</v>
       </c>
       <c r="R43" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S43" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T43" t="n">
-        <v>1985.782478330112</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U43" t="n">
-        <v>1985.782478330112</v>
+        <v>1511.996702817297</v>
       </c>
       <c r="V43" t="n">
-        <v>1711.896733269634</v>
+        <v>1238.110957756819</v>
       </c>
       <c r="W43" t="n">
-        <v>1432.827068778508</v>
+        <v>959.041293265693</v>
       </c>
       <c r="X43" t="n">
-        <v>1194.483206638192</v>
+        <v>720.6974311253764</v>
       </c>
       <c r="Y43" t="n">
-        <v>969.7475080269566</v>
+        <v>495.9617325141411</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>863.903669117783</v>
+        <v>806.8062847724527</v>
       </c>
       <c r="C44" t="n">
-        <v>453.7790784310531</v>
+        <v>396.6816940857228</v>
       </c>
       <c r="D44" t="n">
-        <v>49.31514852411357</v>
+        <v>396.6816940857228</v>
       </c>
       <c r="E44" t="n">
-        <v>49.31514852411357</v>
+        <v>396.6816940857228</v>
       </c>
       <c r="F44" t="n">
-        <v>49.31514852411357</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="G44" t="n">
-        <v>49.31514852411357</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="H44" t="n">
-        <v>49.31514852411357</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I44" t="n">
         <v>40.60868509638841</v>
@@ -7651,13 +7651,13 @@
         <v>135.553658593597</v>
       </c>
       <c r="K44" t="n">
-        <v>463.6266798040501</v>
+        <v>298.4006618101654</v>
       </c>
       <c r="L44" t="n">
-        <v>680.5980007637157</v>
+        <v>515.371982769831</v>
       </c>
       <c r="M44" t="n">
-        <v>934.8465233940735</v>
+        <v>1017.904460837638</v>
       </c>
       <c r="N44" t="n">
         <v>1437.37900146188</v>
@@ -7675,25 +7675,25 @@
         <v>2030.43425481942</v>
       </c>
       <c r="S44" t="n">
-        <v>2030.43425481942</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="T44" t="n">
-        <v>1817.044119835461</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="U44" t="n">
-        <v>1817.044119835461</v>
+        <v>1941.047538131851</v>
       </c>
       <c r="V44" t="n">
-        <v>1817.044119835461</v>
+        <v>1591.209983468332</v>
       </c>
       <c r="W44" t="n">
-        <v>1817.044119835461</v>
+        <v>1207.4496826035</v>
       </c>
       <c r="X44" t="n">
-        <v>1675.061521834182</v>
+        <v>806.8062847724527</v>
       </c>
       <c r="Y44" t="n">
-        <v>1274.124848782272</v>
+        <v>806.8062847724527</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>687.206064641598</v>
+        <v>687.2060646415979</v>
       </c>
       <c r="C45" t="n">
-        <v>553.2109933905438</v>
+        <v>553.2109933905436</v>
       </c>
       <c r="D45" t="n">
         <v>436.3138356099362</v>
@@ -7715,7 +7715,7 @@
         <v>315.8210196022642</v>
       </c>
       <c r="F45" t="n">
-        <v>206.8611397847688</v>
+        <v>206.8611397847687</v>
       </c>
       <c r="G45" t="n">
         <v>100.9486199300691</v>
@@ -7724,28 +7724,28 @@
         <v>40.60868509638841</v>
       </c>
       <c r="I45" t="n">
-        <v>40.60868509638841</v>
+        <v>56.63600629456043</v>
       </c>
       <c r="J45" t="n">
-        <v>333.2044368301927</v>
+        <v>349.2317580283648</v>
       </c>
       <c r="K45" t="n">
-        <v>448.4817711975034</v>
+        <v>464.5090923956754</v>
       </c>
       <c r="L45" t="n">
-        <v>622.2470025288446</v>
+        <v>967.0415704634819</v>
       </c>
       <c r="M45" t="n">
-        <v>832.8623631258176</v>
+        <v>1177.656931060455</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.887586803105</v>
+        <v>1399.682154737742</v>
       </c>
       <c r="O45" t="n">
-        <v>1248.998273264082</v>
+        <v>1593.79284119872</v>
       </c>
       <c r="P45" t="n">
-        <v>1450.639945261231</v>
+        <v>1856.610102265005</v>
       </c>
       <c r="Q45" t="n">
         <v>1935.300869346252</v>
@@ -7760,7 +7760,7 @@
         <v>1787.461650641686</v>
       </c>
       <c r="U45" t="n">
-        <v>1590.1817340451</v>
+        <v>1590.181734045099</v>
       </c>
       <c r="V45" t="n">
         <v>1376.470207038133</v>
@@ -7769,10 +7769,10 @@
         <v>1163.237038774462</v>
       </c>
       <c r="X45" t="n">
-        <v>986.9110569133546</v>
+        <v>986.9110569133545</v>
       </c>
       <c r="Y45" t="n">
-        <v>827.5090972771847</v>
+        <v>827.5090972771845</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>461.7906865379367</v>
+        <v>833.5674954063095</v>
       </c>
       <c r="C46" t="n">
-        <v>290.6973140996532</v>
+        <v>833.5674954063095</v>
       </c>
       <c r="D46" t="n">
-        <v>290.6973140996532</v>
+        <v>674.0728507292195</v>
       </c>
       <c r="E46" t="n">
-        <v>129.7864989679727</v>
+        <v>513.162035597539</v>
       </c>
       <c r="F46" t="n">
-        <v>129.7864989679727</v>
+        <v>348.5309097081303</v>
       </c>
       <c r="G46" t="n">
-        <v>129.7864989679727</v>
+        <v>182.1839362644627</v>
       </c>
       <c r="H46" t="n">
-        <v>129.7864989679727</v>
+        <v>40.60868509638841</v>
       </c>
       <c r="I46" t="n">
         <v>40.60868509638841</v>
       </c>
       <c r="J46" t="n">
-        <v>52.29045199975553</v>
+        <v>52.29045199975552</v>
       </c>
       <c r="K46" t="n">
-        <v>309.7147646564053</v>
+        <v>103.4345710706911</v>
       </c>
       <c r="L46" t="n">
-        <v>387.2734768326925</v>
+        <v>494.9723944820013</v>
       </c>
       <c r="M46" t="n">
-        <v>815.3342184237383</v>
+        <v>923.0331360730472</v>
       </c>
       <c r="N46" t="n">
-        <v>1231.669411021506</v>
+        <v>1339.368328670815</v>
       </c>
       <c r="O46" t="n">
-        <v>1616.382886900424</v>
+        <v>1724.081804549733</v>
       </c>
       <c r="P46" t="n">
-        <v>1929.148224455781</v>
+        <v>2017.036691229721</v>
       </c>
       <c r="Q46" t="n">
         <v>2030.43425481942</v>
       </c>
       <c r="R46" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="S46" t="n">
-        <v>1985.782478330112</v>
+        <v>2030.43425481942</v>
       </c>
       <c r="T46" t="n">
-        <v>1760.574526969652</v>
+        <v>1794.745572945857</v>
       </c>
       <c r="U46" t="n">
-        <v>1477.825656841092</v>
+        <v>1570.532801218339</v>
       </c>
       <c r="V46" t="n">
-        <v>1203.939911780614</v>
+        <v>1296.647056157861</v>
       </c>
       <c r="W46" t="n">
-        <v>924.8702472894886</v>
+        <v>1296.647056157861</v>
       </c>
       <c r="X46" t="n">
-        <v>686.526385149172</v>
+        <v>1058.303194017545</v>
       </c>
       <c r="Y46" t="n">
-        <v>461.7906865379367</v>
+        <v>833.5674954063095</v>
       </c>
     </row>
   </sheetData>
@@ -8692,7 +8692,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>81.56721943976854</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>81.56721943976896</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,16 +8765,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>54.22285337407143</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>332.0881280166317</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>116.0163776863311</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8847,19 +8847,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K13" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L13" t="n">
-        <v>317.1506174091142</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>327.9151982777277</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>230.9570145296483</v>
       </c>
       <c r="O13" t="n">
         <v>318.2573327462026</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.31745794701142</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>81.56721943976899</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>382.3263543086448</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9002,31 +9002,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>391.1668118186827</v>
       </c>
       <c r="L15" t="n">
-        <v>104.0204815566411</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>294.8657752230641</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>311.5371632392216</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>56.93769388427975</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9096,13 +9096,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N16" t="n">
-        <v>335.3881832803894</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>232.0637298667368</v>
       </c>
       <c r="P16" t="n">
-        <v>160.2083581753554</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q16" t="n">
         <v>127.5494547533709</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,10 +9172,10 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>38.61651607852866</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>244.7488445850661</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9184,10 +9184,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>81.56721943976896</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>38.03364004258509</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>143.0811528457695</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K19" t="n">
         <v>208.3638319047618</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M19" t="n">
         <v>348.4508580952379</v>
       </c>
       <c r="N19" t="n">
-        <v>335.3881832803894</v>
+        <v>177.3392087095424</v>
       </c>
       <c r="O19" t="n">
         <v>318.2573327462026</v>
       </c>
       <c r="P19" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>88.77622906458551</v>
+        <v>127.5494547533709</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9421,10 +9421,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>283.3653606635944</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920617</v>
+        <v>81.56721943976896</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>391.1668118186827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>145.7959933559778</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>54.22285337407146</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>208.3638319047618</v>
       </c>
       <c r="L22" t="n">
         <v>317.1506174091142</v>
@@ -9573,13 +9573,13 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O22" t="n">
-        <v>170.6973215530648</v>
+        <v>287.7578129287263</v>
       </c>
       <c r="P22" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>449.5875515440443</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9649,13 +9649,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>283.9399535138842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>255.3595952794059</v>
       </c>
       <c r="P23" t="n">
-        <v>421.0071933095654</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,7 +9725,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>300.3525543585491</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>38.03364004258455</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>290.5082850553166</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,22 +9883,22 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>40.89457591498353</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>371.3238291909624</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>421.0071933095654</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,16 +9950,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>3.576245102550871</v>
+        <v>3.576245102550885</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>334.6578486943069</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>464.623870796318</v>
+        <v>54.22285337407129</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,16 +10111,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>449.5875515440443</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>82.14181229005789</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10129,7 +10129,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>421.0071933095654</v>
+        <v>383.6380468714676</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>418.0080735193891</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>381.2736459712357</v>
+        <v>38.03364004258455</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>290.5082850553166</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>394.9165235207139</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>310.0306233027357</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
         <v>128.2784515920617</v>
@@ -10427,13 +10427,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>438.5590382967991</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>344.5334678623389</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>38.03364004258455</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>288.4456132405464</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>123.1981990151101</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>143.0811528457698</v>
+        <v>38.03364004258455</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,16 +10749,16 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>317.1506174091142</v>
+        <v>213.8261639954614</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>348.4508580952379</v>
       </c>
       <c r="N37" t="n">
-        <v>262.2572552157719</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O37" t="n">
-        <v>318.2573327462026</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>263.5328115890082</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>283.3653606635953</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10834,10 +10834,10 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>244.748844585066</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>38.61651607852866</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>106.1407585182982</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>358.1529605161505</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>89.95154518681153</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10983,10 +10983,10 @@
         <v>65.65794306195595</v>
       </c>
       <c r="K40" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M40" t="n">
         <v>348.4508580952379</v>
@@ -10995,10 +10995,10 @@
         <v>335.3881832803894</v>
       </c>
       <c r="O40" t="n">
-        <v>213.8261639954611</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>50.31485733391468</v>
       </c>
       <c r="Q40" t="n">
         <v>127.5494547533709</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -11068,10 +11068,10 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>38.61651607852866</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>244.7488445850661</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11080,10 +11080,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>81.56721943976896</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,19 +11135,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>332.0881280166316</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>57.12272581361611</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>358.1529605161505</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>89.95154518681176</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,10 +11217,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>65.65794306195595</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>317.1506174091142</v>
@@ -11229,13 +11229,13 @@
         <v>348.4508580952379</v>
       </c>
       <c r="N43" t="n">
-        <v>297.7216729286926</v>
+        <v>335.3881832803894</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>318.2573327462026</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>50.31485733391468</v>
       </c>
       <c r="Q43" t="n">
         <v>127.5494547533709</v>
@@ -11299,16 +11299,16 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>166.8949676705905</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>250.7918741792411</v>
       </c>
       <c r="N44" t="n">
-        <v>244.7488445850661</v>
+        <v>160.8519380764157</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -11372,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>3.576245102550871</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
         <v>246.129700984478</v>
@@ -11381,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>332.0881280166317</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>54.22285337407146</v>
+        <v>116.0163776863309</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>88.85829947169823</v>
@@ -11457,10 +11457,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>317.1506174091142</v>
       </c>
       <c r="M46" t="n">
         <v>348.4508580952379</v>
@@ -11472,10 +11472,10 @@
         <v>318.2573327462026</v>
       </c>
       <c r="P46" t="n">
-        <v>263.5328115890082</v>
+        <v>243.5222551492413</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.77622906458551</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
@@ -23272,13 +23272,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>402.6471267764352</v>
+        <v>185.8215252423638</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>8.619398793447914</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>30.0132830388352</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128.1522304850217</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23427,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.20525872441495</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>193.509112536847</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>329.031042477635</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>416.8201079258493</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I14" t="n">
-        <v>6.447779971140672</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>126.9110541386029</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>2.464767959366128</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H16" t="n">
         <v>140.1594986563935</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S16" t="n">
-        <v>168.9411860548871</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>255.6712610560692</v>
       </c>
       <c r="D17" t="n">
-        <v>337.1380541607589</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
@@ -23749,10 +23749,10 @@
         <v>402.6471267764352</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I17" t="n">
-        <v>8.619398793447914</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23910,7 +23910,7 @@
         <v>140.1594986563935</v>
       </c>
       <c r="I19" t="n">
-        <v>25.41418507413126</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>107.9125968052082</v>
       </c>
     </row>
     <row r="20">
@@ -23971,25 +23971,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>402.6471267764352</v>
+        <v>182.942128733677</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>77.33725490339356</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>274.720690459311</v>
+        <v>159.5291642567061</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>187.8824739533411</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>287.3796452813201</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>115.7750986695283</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>30.24916974805973</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>233.3317950548276</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>68.06426230310512</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>402.6471267764352</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>287.3796452813201</v>
+        <v>13.21796483913573</v>
       </c>
       <c r="I26" t="n">
-        <v>8.619398793447914</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,16 +24496,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.3303768639121</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>110.0788363115885</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>84.16594633855743</v>
       </c>
       <c r="I28" t="n">
-        <v>88.28603573286841</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>44.20525872441495</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>9.353339427760034</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>58.62938898003483</v>
+        <v>47.8326258340482</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>20.21658999763012</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.20525872441495</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>222.6953891217411</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>23.52337770627167</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>120.8755994575753</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H32" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I32" t="n">
-        <v>8.619398793447914</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>72.42575496250529</v>
+        <v>147.1245338601515</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.1594986563935</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>44.20525872441495</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25162,19 +25162,19 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>180.7828335513569</v>
       </c>
       <c r="H35" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I35" t="n">
-        <v>8.619398793447914</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.3303768639121</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -25219,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>268.3395645681358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>33.08238927324139</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>88.28603573286841</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.9411860548871</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>81.66393190733743</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>12.05514626063297</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,10 +25399,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>290.215487589241</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>402.6471267764352</v>
@@ -25411,7 +25411,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I38" t="n">
-        <v>8.619398793447914</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>211.2562336341194</v>
@@ -25453,13 +25453,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25548,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>180.1568497431489</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>80.26192315729283</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>88.28603573286841</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9213814272745</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>57.0833309340162</v>
+        <v>402.6471267764352</v>
       </c>
       <c r="H41" t="n">
         <v>287.3796452813201</v>
       </c>
       <c r="I41" t="n">
-        <v>8.619398793447914</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.2562336341194</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>289.5329839026197</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>57.40212091904941</v>
+        <v>29.38670289762229</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.6835037092309</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.1594986563935</v>
       </c>
       <c r="I43" t="n">
-        <v>88.28603573286841</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S43" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3317950548276</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9213814272745</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>64.30782902640823</v>
       </c>
       <c r="G44" t="n">
         <v>402.6471267764352</v>
@@ -25885,7 +25885,7 @@
         <v>287.3796452813201</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>8.619398793447928</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>88.49284952069368</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>211.2562336341194</v>
       </c>
       <c r="U44" t="n">
         <v>254.3303768639121</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>256.074191831471</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6835037092309</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.1594986563935</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>88.28603573286843</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>44.20525872441496</v>
       </c>
       <c r="S46" t="n">
         <v>168.9411860548871</v>
       </c>
       <c r="T46" t="n">
-        <v>10.37592320797256</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.95073741703214</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>420551.8609747906</v>
+        <v>420551.8609747908</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>420551.8609747908</v>
+        <v>420551.8609747906</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>420551.8609747907</v>
+        <v>420551.8609747908</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>420551.8609747905</v>
+        <v>420551.8609747907</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>477596.7003810162</v>
+        <v>477596.7003810164</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>420551.8609747907</v>
+        <v>420551.8609747906</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>420551.8609747907</v>
+        <v>420551.8609747908</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>420551.8609747906</v>
+        <v>420551.8609747907</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>518407.7583024597</v>
+        <v>518407.7583024596</v>
       </c>
       <c r="C2" t="n">
-        <v>518407.7583024595</v>
+        <v>518407.7583024596</v>
       </c>
       <c r="D2" t="n">
-        <v>518407.7583024595</v>
+        <v>518407.7583024596</v>
       </c>
       <c r="E2" t="n">
+        <v>321207.5185867844</v>
+      </c>
+      <c r="F2" t="n">
+        <v>321207.5185867842</v>
+      </c>
+      <c r="G2" t="n">
+        <v>321207.5185867844</v>
+      </c>
+      <c r="H2" t="n">
         <v>321207.5185867843</v>
       </c>
-      <c r="F2" t="n">
-        <v>321207.5185867843</v>
-      </c>
-      <c r="G2" t="n">
-        <v>321207.5185867843</v>
-      </c>
-      <c r="H2" t="n">
-        <v>321207.5185867844</v>
-      </c>
       <c r="I2" t="n">
-        <v>355452.8971248182</v>
+        <v>355452.8971248183</v>
       </c>
       <c r="J2" t="n">
         <v>355452.8971248181</v>
       </c>
       <c r="K2" t="n">
-        <v>355452.8971248181</v>
+        <v>355452.8971248182</v>
       </c>
       <c r="L2" t="n">
-        <v>355452.8971248182</v>
+        <v>355452.8971248183</v>
       </c>
       <c r="M2" t="n">
-        <v>321207.5185867844</v>
+        <v>321207.5185867842</v>
       </c>
       <c r="N2" t="n">
         <v>321207.5185867843</v>
       </c>
       <c r="O2" t="n">
-        <v>321207.5185867843</v>
+        <v>321207.5185867842</v>
       </c>
       <c r="P2" t="n">
         <v>321207.5185867843</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>550029.5804548445</v>
+        <v>550029.5804548444</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>99965.10778404585</v>
+        <v>99965.10778404586</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>350872.3040056569</v>
       </c>
       <c r="E4" t="n">
-        <v>39558.10618810506</v>
+        <v>39558.10618810509</v>
       </c>
       <c r="F4" t="n">
-        <v>39558.10618810506</v>
+        <v>39558.10618810508</v>
       </c>
       <c r="G4" t="n">
-        <v>39558.10618810506</v>
+        <v>39558.10618810508</v>
       </c>
       <c r="H4" t="n">
-        <v>39558.10618810506</v>
+        <v>39558.10618810508</v>
       </c>
       <c r="I4" t="n">
-        <v>56002.07238998466</v>
+        <v>56002.07238998469</v>
       </c>
       <c r="J4" t="n">
-        <v>56002.07238998466</v>
+        <v>56002.07238998469</v>
       </c>
       <c r="K4" t="n">
-        <v>56002.07238998466</v>
+        <v>56002.07238998469</v>
       </c>
       <c r="L4" t="n">
-        <v>56002.07238998466</v>
+        <v>56002.07238998469</v>
       </c>
       <c r="M4" t="n">
-        <v>39558.10618810506</v>
+        <v>39558.10618810508</v>
       </c>
       <c r="N4" t="n">
-        <v>39558.10618810506</v>
+        <v>39558.10618810508</v>
       </c>
       <c r="O4" t="n">
-        <v>39558.10618810506</v>
+        <v>39558.10618810508</v>
       </c>
       <c r="P4" t="n">
-        <v>39558.10618810507</v>
+        <v>39558.10618810508</v>
       </c>
     </row>
     <row r="5">
@@ -26490,16 +26490,16 @@
         <v>41674.88356206352</v>
       </c>
       <c r="I5" t="n">
-        <v>48148.31490709771</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="J5" t="n">
-        <v>48148.31490709771</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="K5" t="n">
-        <v>48148.31490709771</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="L5" t="n">
-        <v>48148.31490709771</v>
+        <v>48148.3149070977</v>
       </c>
       <c r="M5" t="n">
         <v>41674.88356206352</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>133907.8542968028</v>
+        <v>133899.0546111734</v>
       </c>
       <c r="C6" t="n">
-        <v>133907.8542968027</v>
+        <v>133899.0546111733</v>
       </c>
       <c r="D6" t="n">
-        <v>133907.8542968027</v>
+        <v>133899.0546111734</v>
       </c>
       <c r="E6" t="n">
-        <v>-310055.0516182287</v>
+        <v>-310680.1020529695</v>
       </c>
       <c r="F6" t="n">
-        <v>239974.5288366157</v>
+        <v>239349.4784018747</v>
       </c>
       <c r="G6" t="n">
-        <v>239974.5288366157</v>
+        <v>239349.4784018749</v>
       </c>
       <c r="H6" t="n">
-        <v>239974.5288366158</v>
+        <v>239349.4784018749</v>
       </c>
       <c r="I6" t="n">
-        <v>222989.6588951234</v>
+        <v>222471.625268314</v>
       </c>
       <c r="J6" t="n">
-        <v>251302.5098277357</v>
+        <v>250784.4762009262</v>
       </c>
       <c r="K6" t="n">
-        <v>251302.5098277357</v>
+        <v>250784.4762009264</v>
       </c>
       <c r="L6" t="n">
-        <v>251302.5098277358</v>
+        <v>250784.4762009264</v>
       </c>
       <c r="M6" t="n">
-        <v>140009.42105257</v>
+        <v>139384.3706178289</v>
       </c>
       <c r="N6" t="n">
-        <v>239974.5288366157</v>
+        <v>239349.4784018749</v>
       </c>
       <c r="O6" t="n">
-        <v>239974.5288366157</v>
+        <v>239349.4784018747</v>
       </c>
       <c r="P6" t="n">
-        <v>239974.5288366157</v>
+        <v>239349.4784018749</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="F3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="G3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="H3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="I3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="J3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="K3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="L3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="M3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="N3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="O3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="P3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495.9762793031346</v>
+        <v>495.9762793031345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>507.608563704855</v>
+        <v>507.6085637048551</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I11" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J11" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K11" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L11" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M11" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N11" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O11" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P11" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q11" t="n">
         <v>215.3160137953623</v>
@@ -31788,13 +31788,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S11" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T11" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I12" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J12" t="n">
         <v>100.7908021931021</v>
@@ -31846,7 +31846,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L12" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M12" t="n">
         <v>270.3070722202083</v>
@@ -31858,22 +31858,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P12" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R12" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S12" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T12" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,16 +31910,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H13" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I13" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J13" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K13" t="n">
         <v>103.9110958933452</v>
@@ -31928,31 +31928,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M13" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N13" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O13" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P13" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R13" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S13" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T13" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31995,28 +31995,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I14" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J14" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K14" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L14" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M14" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N14" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O14" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P14" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q14" t="n">
         <v>215.3160137953623</v>
@@ -32025,13 +32025,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S14" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T14" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I15" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J15" t="n">
         <v>100.7908021931021</v>
@@ -32083,7 +32083,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L15" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M15" t="n">
         <v>270.3070722202083</v>
@@ -32095,22 +32095,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P15" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R15" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S15" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T15" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,16 +32147,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H16" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I16" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J16" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K16" t="n">
         <v>103.9110958933452</v>
@@ -32165,31 +32165,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M16" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N16" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O16" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P16" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R16" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S16" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T16" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,28 +32232,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I17" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J17" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K17" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L17" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M17" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N17" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O17" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P17" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q17" t="n">
         <v>215.3160137953623</v>
@@ -32262,13 +32262,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S17" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T17" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I18" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J18" t="n">
         <v>100.7908021931021</v>
@@ -32320,7 +32320,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L18" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M18" t="n">
         <v>270.3070722202083</v>
@@ -32332,22 +32332,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P18" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R18" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S18" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T18" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U18" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H19" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I19" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J19" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K19" t="n">
         <v>103.9110958933452</v>
@@ -32402,31 +32402,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M19" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N19" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O19" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P19" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R19" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S19" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T19" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,28 +32469,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I20" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J20" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K20" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L20" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M20" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N20" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O20" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P20" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q20" t="n">
         <v>215.3160137953623</v>
@@ -32499,13 +32499,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S20" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T20" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I21" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J21" t="n">
         <v>100.7908021931021</v>
@@ -32557,7 +32557,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L21" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M21" t="n">
         <v>270.3070722202083</v>
@@ -32569,22 +32569,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P21" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R21" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S21" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T21" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U21" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,16 +32621,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H22" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I22" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J22" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K22" t="n">
         <v>103.9110958933452</v>
@@ -32639,31 +32639,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M22" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N22" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O22" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P22" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R22" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S22" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T22" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I23" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J23" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K23" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L23" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M23" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N23" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O23" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P23" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q23" t="n">
         <v>215.3160137953623</v>
@@ -32736,13 +32736,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S23" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T23" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I24" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J24" t="n">
         <v>100.7908021931021</v>
@@ -32794,7 +32794,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L24" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M24" t="n">
         <v>270.3070722202083</v>
@@ -32806,22 +32806,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P24" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R24" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S24" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T24" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U24" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H25" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I25" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J25" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K25" t="n">
         <v>103.9110958933452</v>
@@ -32876,31 +32876,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M25" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N25" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O25" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P25" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R25" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S25" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T25" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,28 +32943,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I26" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J26" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K26" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L26" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M26" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N26" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O26" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P26" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q26" t="n">
         <v>215.3160137953623</v>
@@ -32973,13 +32973,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S26" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T26" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I27" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J27" t="n">
         <v>100.7908021931021</v>
@@ -33031,7 +33031,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L27" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M27" t="n">
         <v>270.3070722202083</v>
@@ -33043,22 +33043,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P27" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q27" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R27" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S27" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T27" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U27" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H28" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I28" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J28" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K28" t="n">
         <v>103.9110958933452</v>
@@ -33113,31 +33113,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M28" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N28" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O28" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P28" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R28" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S28" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T28" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,28 +33180,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I29" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J29" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K29" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L29" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M29" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N29" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O29" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P29" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q29" t="n">
         <v>215.3160137953623</v>
@@ -33210,13 +33210,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S29" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T29" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I30" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J30" t="n">
         <v>100.7908021931021</v>
@@ -33268,7 +33268,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L30" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M30" t="n">
         <v>270.3070722202083</v>
@@ -33280,22 +33280,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P30" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q30" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R30" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S30" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T30" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U30" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H31" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I31" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J31" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K31" t="n">
         <v>103.9110958933452</v>
@@ -33350,31 +33350,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M31" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N31" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O31" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P31" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R31" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S31" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T31" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,28 +33417,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I32" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J32" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K32" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L32" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M32" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N32" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O32" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P32" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q32" t="n">
         <v>215.3160137953623</v>
@@ -33447,13 +33447,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S32" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T32" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I33" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J33" t="n">
         <v>100.7908021931021</v>
@@ -33505,7 +33505,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L33" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M33" t="n">
         <v>270.3070722202083</v>
@@ -33517,22 +33517,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P33" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q33" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R33" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S33" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T33" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U33" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H34" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I34" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J34" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K34" t="n">
         <v>103.9110958933452</v>
@@ -33587,31 +33587,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M34" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N34" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O34" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P34" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R34" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S34" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T34" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,28 +33654,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I35" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J35" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K35" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L35" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M35" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N35" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O35" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P35" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q35" t="n">
         <v>215.3160137953623</v>
@@ -33684,13 +33684,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S35" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T35" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I36" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J36" t="n">
         <v>100.7908021931021</v>
@@ -33742,7 +33742,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L36" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M36" t="n">
         <v>270.3070722202083</v>
@@ -33754,22 +33754,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P36" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q36" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R36" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S36" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T36" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U36" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H37" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I37" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J37" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K37" t="n">
         <v>103.9110958933452</v>
@@ -33824,31 +33824,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M37" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N37" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O37" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P37" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R37" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S37" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T37" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,28 +33891,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I38" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J38" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K38" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L38" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M38" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N38" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O38" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P38" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q38" t="n">
         <v>215.3160137953623</v>
@@ -33921,13 +33921,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S38" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T38" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I39" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J39" t="n">
         <v>100.7908021931021</v>
@@ -33979,7 +33979,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L39" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M39" t="n">
         <v>270.3070722202083</v>
@@ -33991,22 +33991,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P39" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q39" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R39" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S39" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T39" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U39" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H40" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I40" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J40" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K40" t="n">
         <v>103.9110958933452</v>
@@ -34061,31 +34061,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M40" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N40" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O40" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P40" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R40" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S40" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T40" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,28 +34128,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I41" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J41" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K41" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L41" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M41" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N41" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O41" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P41" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q41" t="n">
         <v>215.3160137953623</v>
@@ -34158,13 +34158,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S41" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T41" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I42" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J42" t="n">
         <v>100.7908021931021</v>
@@ -34216,7 +34216,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L42" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M42" t="n">
         <v>270.3070722202083</v>
@@ -34228,22 +34228,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P42" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q42" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R42" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S42" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T42" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U42" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,16 +34280,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H43" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I43" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J43" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K43" t="n">
         <v>103.9110958933452</v>
@@ -34298,31 +34298,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M43" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N43" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O43" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P43" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R43" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S43" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T43" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>20.41976711723909</v>
       </c>
       <c r="I44" t="n">
-        <v>76.86884626264965</v>
+        <v>76.86884626264964</v>
       </c>
       <c r="J44" t="n">
-        <v>169.227604966852</v>
+        <v>169.2276049668519</v>
       </c>
       <c r="K44" t="n">
         <v>253.6283121141954</v>
       </c>
       <c r="L44" t="n">
-        <v>314.6483485271535</v>
+        <v>314.6483485271534</v>
       </c>
       <c r="M44" t="n">
         <v>350.1069139826594</v>
       </c>
       <c r="N44" t="n">
-        <v>355.7720098764083</v>
+        <v>355.7720098764082</v>
       </c>
       <c r="O44" t="n">
-        <v>335.9454204198433</v>
+        <v>335.9454204198432</v>
       </c>
       <c r="P44" t="n">
-        <v>286.7216439563413</v>
+        <v>286.7216439563412</v>
       </c>
       <c r="Q44" t="n">
         <v>215.3160137953623</v>
@@ -34395,13 +34395,13 @@
         <v>125.2477184111579</v>
       </c>
       <c r="S44" t="n">
-        <v>45.43541493314646</v>
+        <v>45.43541493314645</v>
       </c>
       <c r="T44" t="n">
-        <v>8.728185578490336</v>
+        <v>8.728185578490335</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1595099591728673</v>
+        <v>0.1595099591728672</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,7 +34444,7 @@
         <v>10.30320534929719</v>
       </c>
       <c r="I45" t="n">
-        <v>36.73031879744913</v>
+        <v>36.73031879744912</v>
       </c>
       <c r="J45" t="n">
         <v>100.7908021931021</v>
@@ -34453,7 +34453,7 @@
         <v>172.2675346707878</v>
       </c>
       <c r="L45" t="n">
-        <v>231.6349594990725</v>
+        <v>231.6349594990724</v>
       </c>
       <c r="M45" t="n">
         <v>270.3070722202083</v>
@@ -34465,22 +34465,22 @@
         <v>253.8228794656334</v>
       </c>
       <c r="P45" t="n">
-        <v>203.7152381915083</v>
+        <v>203.7152381915082</v>
       </c>
       <c r="Q45" t="n">
         <v>136.1782418192305</v>
       </c>
       <c r="R45" t="n">
-        <v>66.23622839448279</v>
+        <v>66.23622839448278</v>
       </c>
       <c r="S45" t="n">
         <v>19.81565606461107</v>
       </c>
       <c r="T45" t="n">
-        <v>4.300020761128119</v>
+        <v>4.300020761128118</v>
       </c>
       <c r="U45" t="n">
-        <v>0.07018532254289644</v>
+        <v>0.07018532254289642</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8943834544810623</v>
+        <v>0.8943834544810622</v>
       </c>
       <c r="H46" t="n">
-        <v>7.95188198620436</v>
+        <v>7.951881986204358</v>
       </c>
       <c r="I46" t="n">
         <v>26.89654970384868</v>
       </c>
       <c r="J46" t="n">
-        <v>63.2329102318111</v>
+        <v>63.23291023181109</v>
       </c>
       <c r="K46" t="n">
         <v>103.9110958933452</v>
@@ -34535,31 +34535,31 @@
         <v>132.9704274053027</v>
       </c>
       <c r="M46" t="n">
-        <v>140.1986718692451</v>
+        <v>140.198671869245</v>
       </c>
       <c r="N46" t="n">
         <v>136.8650608116339</v>
       </c>
       <c r="O46" t="n">
-        <v>126.4170359115597</v>
+        <v>126.4170359115596</v>
       </c>
       <c r="P46" t="n">
         <v>108.1716134401459</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.89241817477333</v>
+        <v>74.89241817477331</v>
       </c>
       <c r="R46" t="n">
-        <v>40.21473241693939</v>
+        <v>40.21473241693938</v>
       </c>
       <c r="S46" t="n">
         <v>15.58666438400178</v>
       </c>
       <c r="T46" t="n">
-        <v>3.821456578237265</v>
+        <v>3.821456578237264</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04878455206260346</v>
+        <v>0.04878455206260345</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>425.9806064494321</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K11" t="n">
-        <v>246.0591418807469</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L11" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M11" t="n">
-        <v>256.816689525614</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N11" t="n">
-        <v>262.859719119789</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O11" t="n">
-        <v>242.7556447940602</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P11" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q11" t="n">
-        <v>125.2822093962103</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R11" t="n">
-        <v>37.9355755964344</v>
+        <v>119.5027950362033</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J12" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K12" t="n">
-        <v>170.6646052602439</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L12" t="n">
-        <v>175.5204356882234</v>
+        <v>507.608563704855</v>
       </c>
       <c r="M12" t="n">
         <v>212.7427884817909</v>
@@ -35503,16 +35503,16 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O12" t="n">
-        <v>196.0714004656334</v>
+        <v>312.0877781519645</v>
       </c>
       <c r="P12" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q12" t="n">
-        <v>489.5564889747693</v>
+        <v>79.48562331439174</v>
       </c>
       <c r="R12" t="n">
-        <v>96.09432876077562</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.79976454885568</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K13" t="n">
-        <v>260.0245582390402</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L13" t="n">
-        <v>395.4927509205154</v>
+        <v>78.34213351140116</v>
       </c>
       <c r="M13" t="n">
-        <v>411.8489276481927</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N13" t="n">
-        <v>85.15241530321448</v>
+        <v>316.1094298328628</v>
       </c>
       <c r="O13" t="n">
         <v>388.5994705847659</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>125.2214715805554</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K14" t="n">
-        <v>164.4919224409783</v>
+        <v>246.0591418807473</v>
       </c>
       <c r="L14" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M14" t="n">
-        <v>256.816689525614</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N14" t="n">
-        <v>262.859719119789</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O14" t="n">
-        <v>242.7556447940602</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P14" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q14" t="n">
-        <v>507.608563704855</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R14" t="n">
-        <v>37.9355755964344</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J15" t="n">
-        <v>49.42156339310211</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K15" t="n">
-        <v>116.4417518861724</v>
+        <v>507.608563704855</v>
       </c>
       <c r="L15" t="n">
-        <v>279.5409172448645</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M15" t="n">
-        <v>507.608563704855</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N15" t="n">
         <v>224.2679027043309</v>
       </c>
       <c r="O15" t="n">
-        <v>507.608563704855</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P15" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q15" t="n">
-        <v>79.48562331439177</v>
+        <v>136.4233171986715</v>
       </c>
       <c r="R15" t="n">
-        <v>96.09432876077562</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>77.45770761081164</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K16" t="n">
-        <v>260.0245582390402</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L16" t="n">
         <v>395.4927509205154</v>
@@ -35816,13 +35816,13 @@
         <v>432.3845874657029</v>
       </c>
       <c r="N16" t="n">
-        <v>420.5405985836039</v>
+        <v>85.15241530321445</v>
       </c>
       <c r="O16" t="n">
-        <v>70.34213783856333</v>
+        <v>302.4058677053001</v>
       </c>
       <c r="P16" t="n">
-        <v>212.6001299755965</v>
+        <v>315.9245833892493</v>
       </c>
       <c r="Q16" t="n">
         <v>141.0823472682186</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>95.90401363354403</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K17" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L17" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M17" t="n">
-        <v>295.4332056041426</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N17" t="n">
-        <v>507.608563704855</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O17" t="n">
-        <v>242.7556447940602</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P17" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q17" t="n">
-        <v>125.2822093962103</v>
+        <v>206.8494288359792</v>
       </c>
       <c r="R17" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J18" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K18" t="n">
-        <v>116.4417518861724</v>
+        <v>154.4753919287575</v>
       </c>
       <c r="L18" t="n">
         <v>175.5204356882234</v>
@@ -35977,16 +35977,16 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O18" t="n">
-        <v>339.152553311403</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P18" t="n">
         <v>149.4556031887045</v>
       </c>
       <c r="Q18" t="n">
-        <v>489.5564889747693</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R18" t="n">
-        <v>7.236029289077386</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.79976454885568</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K19" t="n">
-        <v>260.0245582390402</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L19" t="n">
-        <v>78.34213351140119</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M19" t="n">
         <v>432.3845874657029</v>
       </c>
       <c r="N19" t="n">
-        <v>420.5405985836039</v>
+        <v>262.4916240127569</v>
       </c>
       <c r="O19" t="n">
         <v>388.5994705847659</v>
       </c>
       <c r="P19" t="n">
-        <v>315.9245833892493</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q19" t="n">
-        <v>102.3091215794333</v>
+        <v>141.0823472682186</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>95.90401363354403</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K20" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L20" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M20" t="n">
-        <v>256.816689525614</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N20" t="n">
-        <v>262.859719119789</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O20" t="n">
-        <v>242.7556447940602</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P20" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q20" t="n">
-        <v>408.6475700598047</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R20" t="n">
-        <v>166.2140271884961</v>
+        <v>119.5027950362033</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J21" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K21" t="n">
-        <v>116.4417518861724</v>
+        <v>507.608563704855</v>
       </c>
       <c r="L21" t="n">
         <v>175.5204356882234</v>
       </c>
       <c r="M21" t="n">
-        <v>212.7427884817909</v>
+        <v>358.5387818377687</v>
       </c>
       <c r="N21" t="n">
         <v>224.2679027043309</v>
@@ -36217,13 +36217,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P21" t="n">
-        <v>203.678456562776</v>
+        <v>149.4556031887045</v>
       </c>
       <c r="Q21" t="n">
-        <v>489.5564889747693</v>
+        <v>79.48562331439174</v>
       </c>
       <c r="R21" t="n">
-        <v>96.09432876077562</v>
+        <v>7.236029289077372</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.79976454885568</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K22" t="n">
-        <v>51.66072633427839</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L22" t="n">
         <v>395.4927509205154</v>
@@ -36293,13 +36293,13 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O22" t="n">
-        <v>241.0394593916282</v>
+        <v>358.0999507672896</v>
       </c>
       <c r="P22" t="n">
-        <v>315.9245833892493</v>
+        <v>52.3917718002411</v>
       </c>
       <c r="Q22" t="n">
-        <v>141.0823472682186</v>
+        <v>13.53289251484775</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>95.90401363354403</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K23" t="n">
-        <v>164.4919224409783</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="L23" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M23" t="n">
-        <v>256.816689525614</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N23" t="n">
-        <v>546.7996726336733</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O23" t="n">
-        <v>242.7556447940602</v>
+        <v>498.115240073466</v>
       </c>
       <c r="P23" t="n">
-        <v>614.0794739850226</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q23" t="n">
-        <v>125.2822093962103</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R23" t="n">
         <v>166.2140271884961</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J24" t="n">
-        <v>49.42156339310211</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K24" t="n">
         <v>116.4417518861724</v>
@@ -36445,7 +36445,7 @@
         <v>175.5204356882234</v>
       </c>
       <c r="M24" t="n">
-        <v>513.09534284034</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N24" t="n">
         <v>224.2679027043309</v>
@@ -36454,13 +36454,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P24" t="n">
-        <v>149.4556031887045</v>
+        <v>187.489243231289</v>
       </c>
       <c r="Q24" t="n">
-        <v>489.5564889747693</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R24" t="n">
-        <v>96.09432876077562</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>77.45770761081164</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K25" t="n">
-        <v>260.0245582390402</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L25" t="n">
         <v>395.4927509205154</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>95.90401363354403</v>
+        <v>386.4122986888606</v>
       </c>
       <c r="K26" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L26" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M26" t="n">
-        <v>297.7112654405975</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N26" t="n">
-        <v>262.859719119789</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O26" t="n">
-        <v>614.0794739850226</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P26" t="n">
-        <v>614.0794739850226</v>
+        <v>193.0722806754571</v>
       </c>
       <c r="Q26" t="n">
-        <v>125.2822093962103</v>
+        <v>539.721071164344</v>
       </c>
       <c r="R26" t="n">
-        <v>37.9355755964344</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>49.42156339310211</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K27" t="n">
         <v>116.4417518861724</v>
       </c>
       <c r="L27" t="n">
-        <v>510.1782843825304</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M27" t="n">
         <v>212.7427884817909</v>
@@ -36691,13 +36691,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P27" t="n">
-        <v>614.0794739850226</v>
+        <v>203.6784565627758</v>
       </c>
       <c r="Q27" t="n">
-        <v>79.48562331439177</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R27" t="n">
-        <v>7.236029289077386</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>77.45770761081164</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K28" t="n">
-        <v>260.0245582390402</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L28" t="n">
         <v>395.4927509205154</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>425.9806064494321</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K29" t="n">
-        <v>164.4919224409783</v>
+        <v>614.0794739850226</v>
       </c>
       <c r="L29" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M29" t="n">
-        <v>338.9585018156719</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N29" t="n">
-        <v>262.859719119789</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O29" t="n">
-        <v>242.7556447940602</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P29" t="n">
-        <v>614.0794739850226</v>
+        <v>576.7103275469246</v>
       </c>
       <c r="Q29" t="n">
-        <v>125.2822093962103</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R29" t="n">
-        <v>37.9355755964344</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J30" t="n">
-        <v>49.42156339310211</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K30" t="n">
         <v>116.4417518861724</v>
@@ -36925,16 +36925,16 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O30" t="n">
-        <v>614.0794739850226</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P30" t="n">
-        <v>530.7292491599403</v>
+        <v>187.489243231289</v>
       </c>
       <c r="Q30" t="n">
-        <v>79.48562331439177</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R30" t="n">
-        <v>7.236029289077386</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>77.45770761081164</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K31" t="n">
-        <v>260.0245582390402</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L31" t="n">
         <v>395.4927509205154</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>95.90401363354403</v>
+        <v>386.4122986888606</v>
       </c>
       <c r="K32" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L32" t="n">
-        <v>614.0794739850226</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M32" t="n">
-        <v>566.8473128283497</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N32" t="n">
-        <v>262.859719119789</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O32" t="n">
-        <v>242.7556447940602</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P32" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q32" t="n">
-        <v>125.2822093962103</v>
+        <v>539.721071164344</v>
       </c>
       <c r="R32" t="n">
         <v>166.2140271884961</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>16.1892133314869</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J33" t="n">
-        <v>49.42156339310211</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K33" t="n">
         <v>116.4417518861724</v>
       </c>
       <c r="L33" t="n">
-        <v>614.0794739850226</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M33" t="n">
         <v>212.7427884817909</v>
@@ -37162,16 +37162,16 @@
         <v>224.2679027043309</v>
       </c>
       <c r="O33" t="n">
-        <v>540.6048683279723</v>
+        <v>196.0714004656334</v>
       </c>
       <c r="P33" t="n">
-        <v>149.4556031887045</v>
+        <v>187.489243231289</v>
       </c>
       <c r="Q33" t="n">
-        <v>79.48562331439177</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R33" t="n">
-        <v>7.236029289077386</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>77.45770761081164</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K34" t="n">
-        <v>260.0245582390402</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L34" t="n">
         <v>395.4927509205154</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.90401363354403</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K35" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L35" t="n">
-        <v>507.608563704855</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M35" t="n">
-        <v>380.0148885407241</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N35" t="n">
-        <v>262.859719119789</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O35" t="n">
-        <v>242.7556447940602</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P35" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q35" t="n">
-        <v>125.2822093962103</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R35" t="n">
-        <v>37.9355755964344</v>
+        <v>166.2140271884961</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J36" t="n">
         <v>295.5512643775801</v>
@@ -37402,13 +37402,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P36" t="n">
-        <v>292.5367560344744</v>
+        <v>187.489243231289</v>
       </c>
       <c r="Q36" t="n">
-        <v>489.5564889747693</v>
+        <v>489.5564889747692</v>
       </c>
       <c r="R36" t="n">
-        <v>7.236029289077386</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>77.45770761081164</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K37" t="n">
-        <v>260.0245582390402</v>
+        <v>260.0245582390401</v>
       </c>
       <c r="L37" t="n">
-        <v>395.4927509205154</v>
+        <v>292.1682975068626</v>
       </c>
       <c r="M37" t="n">
-        <v>83.93372937046502</v>
+        <v>432.3845874657029</v>
       </c>
       <c r="N37" t="n">
-        <v>347.4096705189864</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O37" t="n">
-        <v>388.5994705847659</v>
+        <v>70.3421378385633</v>
       </c>
       <c r="P37" t="n">
         <v>315.9245833892493</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.90401363354403</v>
+        <v>379.2693742971393</v>
       </c>
       <c r="K38" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L38" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M38" t="n">
-        <v>256.816689525614</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N38" t="n">
-        <v>507.608563704855</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O38" t="n">
-        <v>281.3721608725888</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P38" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q38" t="n">
-        <v>125.2822093962103</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R38" t="n">
         <v>166.2140271884961</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J39" t="n">
         <v>295.5512643775801</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5825104044706</v>
+        <v>116.4417518861724</v>
       </c>
       <c r="L39" t="n">
         <v>175.5204356882234</v>
@@ -37642,10 +37642,10 @@
         <v>507.608563704855</v>
       </c>
       <c r="Q39" t="n">
-        <v>79.48562331439177</v>
+        <v>169.4371685012033</v>
       </c>
       <c r="R39" t="n">
-        <v>96.09432876077562</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>77.45770761081164</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K40" t="n">
-        <v>260.0245582390402</v>
+        <v>51.66072633427837</v>
       </c>
       <c r="L40" t="n">
-        <v>78.34213351140119</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M40" t="n">
         <v>432.3845874657029</v>
@@ -37715,10 +37715,10 @@
         <v>420.5405985836039</v>
       </c>
       <c r="O40" t="n">
-        <v>284.1683018340245</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9245833892493</v>
+        <v>102.7066291341558</v>
       </c>
       <c r="Q40" t="n">
         <v>141.0823472682186</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.90401363354403</v>
+        <v>425.980606449432</v>
       </c>
       <c r="K41" t="n">
         <v>164.4919224409783</v>
       </c>
       <c r="L41" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M41" t="n">
-        <v>295.4332056041426</v>
+        <v>256.8166895256139</v>
       </c>
       <c r="N41" t="n">
-        <v>507.608563704855</v>
+        <v>262.8597191197889</v>
       </c>
       <c r="O41" t="n">
-        <v>242.7556447940602</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P41" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q41" t="n">
-        <v>125.2822093962103</v>
+        <v>206.8494288359792</v>
       </c>
       <c r="R41" t="n">
-        <v>166.2140271884961</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,19 +37855,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J42" t="n">
-        <v>49.42156339310211</v>
+        <v>295.5512643775801</v>
       </c>
       <c r="K42" t="n">
         <v>116.4417518861724</v>
       </c>
       <c r="L42" t="n">
-        <v>507.608563704855</v>
+        <v>175.5204356882234</v>
       </c>
       <c r="M42" t="n">
-        <v>269.865514295407</v>
+        <v>212.7427884817909</v>
       </c>
       <c r="N42" t="n">
         <v>224.2679027043309</v>
@@ -37876,13 +37876,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P42" t="n">
-        <v>149.4556031887045</v>
+        <v>507.608563704855</v>
       </c>
       <c r="Q42" t="n">
-        <v>489.5564889747693</v>
+        <v>169.4371685012035</v>
       </c>
       <c r="R42" t="n">
-        <v>7.236029289077386</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>11.79976454885568</v>
+        <v>77.45770761081161</v>
       </c>
       <c r="K43" t="n">
-        <v>260.0245582390402</v>
+        <v>51.66072633427837</v>
       </c>
       <c r="L43" t="n">
         <v>395.4927509205154</v>
@@ -37949,13 +37949,13 @@
         <v>432.3845874657029</v>
       </c>
       <c r="N43" t="n">
-        <v>382.874088231907</v>
+        <v>420.5405985836039</v>
       </c>
       <c r="O43" t="n">
-        <v>70.34213783856333</v>
+        <v>388.5994705847659</v>
       </c>
       <c r="P43" t="n">
-        <v>315.9245833892493</v>
+        <v>102.7066291341558</v>
       </c>
       <c r="Q43" t="n">
         <v>141.0823472682186</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.90401363354403</v>
+        <v>95.904013633544</v>
       </c>
       <c r="K44" t="n">
-        <v>331.3868901115688</v>
+        <v>164.4919224409783</v>
       </c>
       <c r="L44" t="n">
-        <v>219.1629504643087</v>
+        <v>219.1629504643086</v>
       </c>
       <c r="M44" t="n">
-        <v>256.816689525614</v>
+        <v>507.608563704855</v>
       </c>
       <c r="N44" t="n">
-        <v>507.608563704855</v>
+        <v>423.7116571962046</v>
       </c>
       <c r="O44" t="n">
-        <v>242.7556447940602</v>
+        <v>242.7556447940601</v>
       </c>
       <c r="P44" t="n">
         <v>193.0722806754571</v>
       </c>
       <c r="Q44" t="n">
-        <v>125.2822093962103</v>
+        <v>125.2822093962102</v>
       </c>
       <c r="R44" t="n">
-        <v>37.9355755964344</v>
+        <v>37.93557559643438</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>16.18921333148689</v>
       </c>
       <c r="J45" t="n">
         <v>295.5512643775801</v>
@@ -38101,7 +38101,7 @@
         <v>116.4417518861724</v>
       </c>
       <c r="L45" t="n">
-        <v>175.5204356882234</v>
+        <v>507.608563704855</v>
       </c>
       <c r="M45" t="n">
         <v>212.7427884817909</v>
@@ -38113,13 +38113,13 @@
         <v>196.0714004656334</v>
       </c>
       <c r="P45" t="n">
-        <v>203.678456562776</v>
+        <v>265.4719808750354</v>
       </c>
       <c r="Q45" t="n">
-        <v>489.5564889747693</v>
+        <v>79.48562331439174</v>
       </c>
       <c r="R45" t="n">
-        <v>96.09432876077562</v>
+        <v>96.0943287607756</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>11.79976454885568</v>
+        <v>11.79976454885567</v>
       </c>
       <c r="K46" t="n">
-        <v>260.0245582390402</v>
+        <v>51.66072633427837</v>
       </c>
       <c r="L46" t="n">
-        <v>78.34213351140119</v>
+        <v>395.4927509205154</v>
       </c>
       <c r="M46" t="n">
         <v>432.3845874657029</v>
@@ -38192,10 +38192,10 @@
         <v>388.5994705847659</v>
       </c>
       <c r="P46" t="n">
-        <v>315.9245833892493</v>
+        <v>295.9140269494824</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.3091215794333</v>
+        <v>13.53289251484775</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
